--- a/CS Course/Copy of OSSU CS Timeline .xlsx
+++ b/CS Course/Copy of OSSU CS Timeline .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxp\Desktop\AI_for_learning\CS Course\Open Source Society University\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxp\Desktop\AI_for_learning\CS Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6C8BD9-ADE2-472C-9499-9B4E920077A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEA4875-D9C4-47A7-BFCF-0021152D1EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Curriculum Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="120">
   <si>
     <t>Start Date</t>
   </si>
@@ -434,6 +433,10 @@
     <t>Python for Everybody</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -444,7 +447,7 @@
     <numFmt numFmtId="177" formatCode="yyyy&quot; &quot;mmm&quot; &quot;dd"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -532,6 +535,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -577,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -663,6 +672,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -880,124 +895,124 @@
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
+                  <c:v>44566</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44568</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>44605.8</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>44621.48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44634.920000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44640.520000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44643.880000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44647.240000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44651.720000000008</c:v>
+                  <c:v>44571</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44656.200000000012</c:v>
+                  <c:v>44582</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44658.44000000001</c:v>
+                  <c:v>44584</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44680.280000000006</c:v>
+                  <c:v>44605.84</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44698.48</c:v>
+                  <c:v>44624.039999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44706.880000000005</c:v>
+                  <c:v>44632.439999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44725.08</c:v>
+                  <c:v>44650.639999999992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44731.8</c:v>
+                  <c:v>44657.359999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44743.560000000005</c:v>
+                  <c:v>44669.119999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44763.720000000008</c:v>
+                  <c:v>44689.279999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44780.520000000011</c:v>
+                  <c:v>44706.080000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44789.48000000001</c:v>
+                  <c:v>44715.040000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44793.960000000014</c:v>
+                  <c:v>44719.520000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44798.440000000017</c:v>
+                  <c:v>44724.000000000007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44802.92000000002</c:v>
+                  <c:v>44728.48000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44807.400000000023</c:v>
+                  <c:v>44732.960000000014</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44811.60000000002</c:v>
+                  <c:v>44737.160000000011</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44816.080000000024</c:v>
+                  <c:v>44741.640000000014</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44820.560000000027</c:v>
+                  <c:v>44746.120000000017</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44826.160000000025</c:v>
+                  <c:v>44751.720000000016</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44837.360000000022</c:v>
+                  <c:v>44762.920000000013</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44831.760000000024</c:v>
+                  <c:v>44757.320000000014</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44842.960000000021</c:v>
+                  <c:v>44768.520000000011</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44855.280000000021</c:v>
+                  <c:v>44780.840000000011</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44875.440000000024</c:v>
+                  <c:v>44801.000000000015</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44888.880000000026</c:v>
+                  <c:v>44814.440000000017</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895.600000000028</c:v>
+                  <c:v>44821.160000000018</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44910.72000000003</c:v>
+                  <c:v>44836.280000000021</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44938.72000000003</c:v>
+                  <c:v>44864.280000000021</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44966.72000000003</c:v>
+                  <c:v>44892.280000000021</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44980.160000000033</c:v>
+                  <c:v>44905.720000000023</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44986.880000000034</c:v>
+                  <c:v>44912.440000000024</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45014.880000000034</c:v>
+                  <c:v>44940.440000000024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,124 +1183,124 @@
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
+                  <c:v>44566</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44568</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>44605.8</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>44625.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44642.200000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44653.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44660.12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44666.840000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44671.320000000007</c:v>
+                  <c:v>44571</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44675.80000000001</c:v>
+                  <c:v>44582</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44681.400000000009</c:v>
+                  <c:v>44584</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44717.80000000001</c:v>
+                  <c:v>44620.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44754.200000000012</c:v>
+                  <c:v>44656.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44771.000000000015</c:v>
+                  <c:v>44673.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44789.200000000012</c:v>
+                  <c:v>44691.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44795.920000000013</c:v>
+                  <c:v>44698.520000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44817.760000000009</c:v>
+                  <c:v>44720.36</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44848.000000000007</c:v>
+                  <c:v>44750.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44868.160000000011</c:v>
+                  <c:v>44770.76</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44895.040000000008</c:v>
+                  <c:v>44797.64</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44904.000000000007</c:v>
+                  <c:v>44806.6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44912.960000000006</c:v>
+                  <c:v>44815.56</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44921.920000000006</c:v>
+                  <c:v>44824.52</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44930.880000000005</c:v>
+                  <c:v>44833.479999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44935.08</c:v>
+                  <c:v>44837.679999999993</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44939.560000000005</c:v>
+                  <c:v>44842.159999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44944.040000000008</c:v>
+                  <c:v>44846.64</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44949.640000000007</c:v>
+                  <c:v>44852.24</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44960.840000000004</c:v>
+                  <c:v>44863.439999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44955.240000000005</c:v>
+                  <c:v>44857.84</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44966.44</c:v>
+                  <c:v>44869.039999999994</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44984.920000000006</c:v>
+                  <c:v>44887.519999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45005.080000000009</c:v>
+                  <c:v>44907.68</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45021.880000000012</c:v>
+                  <c:v>44924.480000000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>45030.840000000011</c:v>
+                  <c:v>44933.440000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45051.000000000015</c:v>
+                  <c:v>44953.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>45079.000000000015</c:v>
+                  <c:v>44981.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45107.000000000015</c:v>
+                  <c:v>45009.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45120.440000000017</c:v>
+                  <c:v>45023.040000000008</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45127.160000000018</c:v>
+                  <c:v>45029.760000000009</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45155.160000000018</c:v>
+                  <c:v>45057.760000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1768,11 +1783,11 @@
       </c>
       <c r="C3" s="5">
         <f>'Curriculum Data'!G41</f>
-        <v>45014.880000000034</v>
+        <v>44940.440000000024</v>
       </c>
       <c r="D3" s="5">
         <f>'Curriculum Data'!J41</f>
-        <v>45155.160000000018</v>
+        <v>45057.760000000009</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1942,7 +1957,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2021,7 +2036,7 @@
       </c>
       <c r="G2" s="16">
         <f>IF(ISBLANK(K2),F2+(E2/(Timeline!$B$3/7)),K2)</f>
-        <v>44568</v>
+        <v>44566</v>
       </c>
       <c r="H2" s="2">
         <v>100</v>
@@ -2032,10 +2047,10 @@
       </c>
       <c r="J2" s="16">
         <f>IF(ISBLANK(K2),I2+(H2/(Timeline!$B$3/7)),K2)</f>
-        <v>44568</v>
+        <v>44566</v>
       </c>
       <c r="K2" s="17">
-        <v>44568</v>
+        <v>44566</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>20</v>
@@ -2059,24 +2074,26 @@
       </c>
       <c r="F3" s="20">
         <f t="shared" ref="F3:F28" si="0">IF(ISBLANK(K2),G2,K2)</f>
-        <v>44568</v>
+        <v>44566</v>
       </c>
       <c r="G3" s="16">
         <f>IF(ISBLANK(K3),F3+(E3/(Timeline!$B$3/7)),K3)</f>
-        <v>44605.8</v>
+        <v>44568</v>
       </c>
       <c r="H3" s="2">
         <v>135</v>
       </c>
       <c r="I3" s="20">
         <f t="shared" ref="I3:I28" si="1">IF(ISBLANK(K2),J2,K2)</f>
-        <v>44568</v>
+        <v>44566</v>
       </c>
       <c r="J3" s="16">
         <f>IF(ISBLANK(K3),I3+(H3/(Timeline!$B$3/7)),K3)</f>
-        <v>44605.8</v>
-      </c>
-      <c r="K3" s="17"/>
+        <v>44568</v>
+      </c>
+      <c r="K3" s="17">
+        <v>44568</v>
+      </c>
       <c r="L3" s="21" t="s">
         <v>24</v>
       </c>
@@ -2099,24 +2116,26 @@
       </c>
       <c r="F4" s="20">
         <f t="shared" si="0"/>
-        <v>44605.8</v>
-      </c>
-      <c r="G4" s="16">
+        <v>44568</v>
+      </c>
+      <c r="G4" s="16" t="str">
         <f>IF(ISBLANK(K4),F4+(E4/(Timeline!$B$3/7)),K4)</f>
-        <v>44621.48</v>
+        <v>null</v>
       </c>
       <c r="H4" s="2">
         <v>70</v>
       </c>
       <c r="I4" s="20">
         <f t="shared" si="1"/>
-        <v>44605.8</v>
-      </c>
-      <c r="J4" s="16">
+        <v>44568</v>
+      </c>
+      <c r="J4" s="16" t="str">
         <f>IF(ISBLANK(K4),I4+(H4/(Timeline!$B$3/7)),K4)</f>
-        <v>44625.4</v>
-      </c>
-      <c r="K4" s="17"/>
+        <v>null</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>119</v>
+      </c>
       <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2137,26 +2156,28 @@
       <c r="E5" s="2">
         <v>48</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>44621.48</v>
-      </c>
-      <c r="G5" s="16">
+        <v>null</v>
+      </c>
+      <c r="G5" s="16" t="str">
         <f>IF(ISBLANK(K5),F5+(E5/(Timeline!$B$3/7)),K5)</f>
-        <v>44634.920000000006</v>
+        <v>null</v>
       </c>
       <c r="H5" s="2">
         <v>60</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>44625.4</v>
-      </c>
-      <c r="J5" s="16">
+        <v>null</v>
+      </c>
+      <c r="J5" s="16" t="str">
         <f>IF(ISBLANK(K5),I5+(H5/(Timeline!$B$3/7)),K5)</f>
-        <v>44642.200000000004</v>
-      </c>
-      <c r="K5" s="23"/>
+        <v>null</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>119</v>
+      </c>
       <c r="L5" s="2" t="s">
         <v>31</v>
       </c>
@@ -2177,26 +2198,28 @@
       <c r="E6" s="2">
         <v>20</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>44634.920000000006</v>
-      </c>
-      <c r="G6" s="16">
+        <v>null</v>
+      </c>
+      <c r="G6" s="16" t="str">
         <f>IF(ISBLANK(K6),F6+(E6/(Timeline!$B$3/7)),K6)</f>
-        <v>44640.520000000004</v>
+        <v>null</v>
       </c>
       <c r="H6" s="2">
         <v>40</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>44642.200000000004</v>
-      </c>
-      <c r="J6" s="16">
+        <v>null</v>
+      </c>
+      <c r="J6" s="16" t="str">
         <f>IF(ISBLANK(K6),I6+(H6/(Timeline!$B$3/7)),K6)</f>
-        <v>44653.4</v>
-      </c>
-      <c r="K6" s="23"/>
+        <v>null</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>119</v>
+      </c>
       <c r="L6" s="21" t="s">
         <v>35</v>
       </c>
@@ -2217,26 +2240,28 @@
       <c r="E7" s="2">
         <v>12</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>44640.520000000004</v>
-      </c>
-      <c r="G7" s="16">
+        <v>null</v>
+      </c>
+      <c r="G7" s="16" t="str">
         <f>IF(ISBLANK(K7),F7+(E7/(Timeline!$B$3/7)),K7)</f>
-        <v>44643.880000000005</v>
+        <v>null</v>
       </c>
       <c r="H7" s="2">
         <v>24</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>44653.4</v>
-      </c>
-      <c r="J7" s="16">
+        <v>null</v>
+      </c>
+      <c r="J7" s="16" t="str">
         <f>IF(ISBLANK(K7),I7+(H7/(Timeline!$B$3/7)),K7)</f>
-        <v>44660.12</v>
-      </c>
-      <c r="K7" s="23"/>
+        <v>null</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>119</v>
+      </c>
       <c r="L7" s="2" t="s">
         <v>32</v>
       </c>
@@ -2257,26 +2282,28 @@
       <c r="E8" s="2">
         <v>12</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>44643.880000000005</v>
-      </c>
-      <c r="G8" s="16">
+        <v>null</v>
+      </c>
+      <c r="G8" s="16" t="str">
         <f>IF(ISBLANK(K8),F8+(E8/(Timeline!$B$3/7)),K8)</f>
-        <v>44647.240000000005</v>
+        <v>null</v>
       </c>
       <c r="H8" s="2">
         <v>24</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>44660.12</v>
-      </c>
-      <c r="J8" s="16">
+        <v>null</v>
+      </c>
+      <c r="J8" s="16" t="str">
         <f>IF(ISBLANK(K8),I8+(H8/(Timeline!$B$3/7)),K8)</f>
-        <v>44666.840000000004</v>
-      </c>
-      <c r="K8" s="23"/>
+        <v>null</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>119</v>
+      </c>
       <c r="L8" s="2" t="s">
         <v>36</v>
       </c>
@@ -2297,26 +2324,28 @@
       <c r="E9" s="26">
         <v>16</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>44647.240000000005</v>
+        <v>null</v>
       </c>
       <c r="G9" s="16">
         <f>IF(ISBLANK(K9),F9+(E9/(Timeline!$B$3/7)),K9)</f>
-        <v>44651.720000000008</v>
+        <v>44571</v>
       </c>
       <c r="H9" s="26">
         <v>16</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>44666.840000000004</v>
+        <v>null</v>
       </c>
       <c r="J9" s="16">
         <f>IF(ISBLANK(K9),I9+(H9/(Timeline!$B$3/7)),K9)</f>
-        <v>44671.320000000007</v>
-      </c>
-      <c r="K9" s="23"/>
+        <v>44571</v>
+      </c>
+      <c r="K9" s="17">
+        <v>44571</v>
+      </c>
       <c r="L9" s="27" t="s">
         <v>42</v>
       </c>
@@ -2339,24 +2368,26 @@
       </c>
       <c r="F10" s="20">
         <f t="shared" si="0"/>
-        <v>44651.720000000008</v>
+        <v>44571</v>
       </c>
       <c r="G10" s="16">
         <f>IF(ISBLANK(K10),F10+(E10/(Timeline!$B$3/7)),K10)</f>
-        <v>44656.200000000012</v>
+        <v>44582</v>
       </c>
       <c r="H10" s="26">
         <v>16</v>
       </c>
       <c r="I10" s="20">
         <f t="shared" si="1"/>
-        <v>44671.320000000007</v>
+        <v>44571</v>
       </c>
       <c r="J10" s="16">
         <f>IF(ISBLANK(K10),I10+(H10/(Timeline!$B$3/7)),K10)</f>
-        <v>44675.80000000001</v>
-      </c>
-      <c r="K10" s="23"/>
+        <v>44582</v>
+      </c>
+      <c r="K10" s="17">
+        <v>44582</v>
+      </c>
       <c r="L10" s="26" t="s">
         <v>39</v>
       </c>
@@ -2379,24 +2410,26 @@
       </c>
       <c r="F11" s="20">
         <f t="shared" si="0"/>
-        <v>44656.200000000012</v>
+        <v>44582</v>
       </c>
       <c r="G11" s="16">
         <f>IF(ISBLANK(K11),F11+(E11/(Timeline!$B$3/7)),K11)</f>
-        <v>44658.44000000001</v>
+        <v>44584</v>
       </c>
       <c r="H11" s="26">
         <v>20</v>
       </c>
       <c r="I11" s="20">
         <f t="shared" si="1"/>
-        <v>44675.80000000001</v>
+        <v>44582</v>
       </c>
       <c r="J11" s="16">
         <f>IF(ISBLANK(K11),I11+(H11/(Timeline!$B$3/7)),K11)</f>
-        <v>44681.400000000009</v>
-      </c>
-      <c r="K11" s="23"/>
+        <v>44584</v>
+      </c>
+      <c r="K11" s="17">
+        <v>44584</v>
+      </c>
       <c r="L11" s="26" t="s">
         <v>43</v>
       </c>
@@ -2419,22 +2452,22 @@
       </c>
       <c r="F12" s="20">
         <f t="shared" si="0"/>
-        <v>44658.44000000001</v>
+        <v>44584</v>
       </c>
       <c r="G12" s="16">
         <f>IF(ISBLANK(K12),F12+(E12/(Timeline!$B$3/7)),K12)</f>
-        <v>44680.280000000006</v>
+        <v>44605.84</v>
       </c>
       <c r="H12" s="2">
         <v>130</v>
       </c>
       <c r="I12" s="20">
         <f t="shared" si="1"/>
-        <v>44681.400000000009</v>
+        <v>44584</v>
       </c>
       <c r="J12" s="16">
         <f>IF(ISBLANK(K12),I12+(H12/(Timeline!$B$3/7)),K12)</f>
-        <v>44717.80000000001</v>
+        <v>44620.4</v>
       </c>
       <c r="K12" s="23"/>
       <c r="L12" s="21" t="s">
@@ -2459,22 +2492,22 @@
       </c>
       <c r="F13" s="20">
         <f t="shared" si="0"/>
-        <v>44680.280000000006</v>
+        <v>44605.84</v>
       </c>
       <c r="G13" s="16">
         <f>IF(ISBLANK(K13),F13+(E13/(Timeline!$B$3/7)),K13)</f>
-        <v>44698.48</v>
+        <v>44624.039999999994</v>
       </c>
       <c r="H13" s="2">
         <v>130</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" si="1"/>
-        <v>44717.80000000001</v>
+        <v>44620.4</v>
       </c>
       <c r="J13" s="16">
         <f>IF(ISBLANK(K13),I13+(H13/(Timeline!$B$3/7)),K13)</f>
-        <v>44754.200000000012</v>
+        <v>44656.800000000003</v>
       </c>
       <c r="K13" s="23"/>
       <c r="L13" s="2" t="s">
@@ -2499,22 +2532,22 @@
       </c>
       <c r="F14" s="20">
         <f t="shared" si="0"/>
-        <v>44698.48</v>
+        <v>44624.039999999994</v>
       </c>
       <c r="G14" s="16">
         <f>IF(ISBLANK(K14),F14+(E14/(Timeline!$B$3/7)),K14)</f>
-        <v>44706.880000000005</v>
+        <v>44632.439999999995</v>
       </c>
       <c r="H14" s="2">
         <v>60</v>
       </c>
       <c r="I14" s="20">
         <f t="shared" si="1"/>
-        <v>44754.200000000012</v>
+        <v>44656.800000000003</v>
       </c>
       <c r="J14" s="16">
         <f>IF(ISBLANK(K14),I14+(H14/(Timeline!$B$3/7)),K14)</f>
-        <v>44771.000000000015</v>
+        <v>44673.600000000006</v>
       </c>
       <c r="K14" s="23"/>
       <c r="L14" s="2" t="s">
@@ -2539,22 +2572,22 @@
       </c>
       <c r="F15" s="20">
         <f t="shared" si="0"/>
-        <v>44706.880000000005</v>
+        <v>44632.439999999995</v>
       </c>
       <c r="G15" s="16">
         <f>IF(ISBLANK(K15),F15+(E15/(Timeline!$B$3/7)),K15)</f>
-        <v>44725.08</v>
+        <v>44650.639999999992</v>
       </c>
       <c r="H15" s="2">
         <v>65</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="1"/>
-        <v>44771.000000000015</v>
+        <v>44673.600000000006</v>
       </c>
       <c r="J15" s="16">
         <f>IF(ISBLANK(K15),I15+(H15/(Timeline!$B$3/7)),K15)</f>
-        <v>44789.200000000012</v>
+        <v>44691.8</v>
       </c>
       <c r="K15" s="23"/>
       <c r="L15" s="2" t="s">
@@ -2579,22 +2612,22 @@
       </c>
       <c r="F16" s="20">
         <f t="shared" si="0"/>
-        <v>44725.08</v>
+        <v>44650.639999999992</v>
       </c>
       <c r="G16" s="16">
         <f>IF(ISBLANK(K16),F16+(E16/(Timeline!$B$3/7)),K16)</f>
-        <v>44731.8</v>
+        <v>44657.359999999993</v>
       </c>
       <c r="H16" s="2">
         <v>24</v>
       </c>
       <c r="I16" s="20">
         <f t="shared" si="1"/>
-        <v>44789.200000000012</v>
+        <v>44691.8</v>
       </c>
       <c r="J16" s="16">
         <f>IF(ISBLANK(K16),I16+(H16/(Timeline!$B$3/7)),K16)</f>
-        <v>44795.920000000013</v>
+        <v>44698.520000000004</v>
       </c>
       <c r="K16" s="23"/>
       <c r="L16" s="2" t="s">
@@ -2619,22 +2652,22 @@
       </c>
       <c r="F17" s="20">
         <f t="shared" si="0"/>
-        <v>44731.8</v>
+        <v>44657.359999999993</v>
       </c>
       <c r="G17" s="16">
         <f>IF(ISBLANK(K17),F17+(E17/(Timeline!$B$3/7)),K17)</f>
-        <v>44743.560000000005</v>
+        <v>44669.119999999995</v>
       </c>
       <c r="H17" s="2">
         <v>78</v>
       </c>
       <c r="I17" s="20">
         <f t="shared" si="1"/>
-        <v>44795.920000000013</v>
+        <v>44698.520000000004</v>
       </c>
       <c r="J17" s="16">
         <f>IF(ISBLANK(K17),I17+(H17/(Timeline!$B$3/7)),K17)</f>
-        <v>44817.760000000009</v>
+        <v>44720.36</v>
       </c>
       <c r="K17" s="23"/>
       <c r="L17" s="2" t="s">
@@ -2659,22 +2692,22 @@
       </c>
       <c r="F18" s="20">
         <f t="shared" si="0"/>
-        <v>44743.560000000005</v>
+        <v>44669.119999999995</v>
       </c>
       <c r="G18" s="16">
         <f>IF(ISBLANK(K18),F18+(E18/(Timeline!$B$3/7)),K18)</f>
-        <v>44763.720000000008</v>
+        <v>44689.279999999999</v>
       </c>
       <c r="H18" s="2">
         <v>108</v>
       </c>
       <c r="I18" s="20">
         <f t="shared" si="1"/>
-        <v>44817.760000000009</v>
+        <v>44720.36</v>
       </c>
       <c r="J18" s="16">
         <f>IF(ISBLANK(K18),I18+(H18/(Timeline!$B$3/7)),K18)</f>
-        <v>44848.000000000007</v>
+        <v>44750.6</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="21" t="s">
@@ -2699,22 +2732,22 @@
       </c>
       <c r="F19" s="20">
         <f t="shared" si="0"/>
-        <v>44763.720000000008</v>
+        <v>44689.279999999999</v>
       </c>
       <c r="G19" s="16">
         <f>IF(ISBLANK(K19),F19+(E19/(Timeline!$B$3/7)),K19)</f>
-        <v>44780.520000000011</v>
+        <v>44706.080000000002</v>
       </c>
       <c r="H19" s="2">
         <v>72</v>
       </c>
       <c r="I19" s="20">
         <f t="shared" si="1"/>
-        <v>44848.000000000007</v>
+        <v>44750.6</v>
       </c>
       <c r="J19" s="16">
         <f>IF(ISBLANK(K19),I19+(H19/(Timeline!$B$3/7)),K19)</f>
-        <v>44868.160000000011</v>
+        <v>44770.76</v>
       </c>
       <c r="K19" s="23"/>
       <c r="L19" s="28" t="s">
@@ -2739,22 +2772,22 @@
       </c>
       <c r="F20" s="20">
         <f t="shared" si="0"/>
-        <v>44780.520000000011</v>
+        <v>44706.080000000002</v>
       </c>
       <c r="G20" s="16">
         <f>IF(ISBLANK(K20),F20+(E20/(Timeline!$B$3/7)),K20)</f>
-        <v>44789.48000000001</v>
+        <v>44715.040000000001</v>
       </c>
       <c r="H20" s="2">
         <v>96</v>
       </c>
       <c r="I20" s="20">
         <f t="shared" si="1"/>
-        <v>44868.160000000011</v>
+        <v>44770.76</v>
       </c>
       <c r="J20" s="16">
         <f>IF(ISBLANK(K20),I20+(H20/(Timeline!$B$3/7)),K20)</f>
-        <v>44895.040000000008</v>
+        <v>44797.64</v>
       </c>
       <c r="K20" s="23"/>
       <c r="L20" s="2" t="s">
@@ -2779,22 +2812,22 @@
       </c>
       <c r="F21" s="20">
         <f t="shared" si="0"/>
-        <v>44789.48000000001</v>
+        <v>44715.040000000001</v>
       </c>
       <c r="G21" s="16">
         <f>IF(ISBLANK(K21),F21+(E21/(Timeline!$B$3/7)),K21)</f>
-        <v>44793.960000000014</v>
+        <v>44719.520000000004</v>
       </c>
       <c r="H21" s="2">
         <v>32</v>
       </c>
       <c r="I21" s="20">
         <f t="shared" si="1"/>
-        <v>44895.040000000008</v>
+        <v>44797.64</v>
       </c>
       <c r="J21" s="16">
         <f>IF(ISBLANK(K21),I21+(H21/(Timeline!$B$3/7)),K21)</f>
-        <v>44904.000000000007</v>
+        <v>44806.6</v>
       </c>
       <c r="K21" s="23"/>
       <c r="L21" s="2" t="s">
@@ -2819,22 +2852,22 @@
       </c>
       <c r="F22" s="20">
         <f t="shared" si="0"/>
-        <v>44793.960000000014</v>
+        <v>44719.520000000004</v>
       </c>
       <c r="G22" s="16">
         <f>IF(ISBLANK(K22),F22+(E22/(Timeline!$B$3/7)),K22)</f>
-        <v>44798.440000000017</v>
+        <v>44724.000000000007</v>
       </c>
       <c r="H22" s="2">
         <v>32</v>
       </c>
       <c r="I22" s="20">
         <f t="shared" si="1"/>
-        <v>44904.000000000007</v>
+        <v>44806.6</v>
       </c>
       <c r="J22" s="16">
         <f>IF(ISBLANK(K22),I22+(H22/(Timeline!$B$3/7)),K22)</f>
-        <v>44912.960000000006</v>
+        <v>44815.56</v>
       </c>
       <c r="K22" s="23"/>
       <c r="L22" s="2" t="s">
@@ -2859,22 +2892,22 @@
       </c>
       <c r="F23" s="20">
         <f t="shared" si="0"/>
-        <v>44798.440000000017</v>
+        <v>44724.000000000007</v>
       </c>
       <c r="G23" s="16">
         <f>IF(ISBLANK(K23),F23+(E23/(Timeline!$B$3/7)),K23)</f>
-        <v>44802.92000000002</v>
+        <v>44728.48000000001</v>
       </c>
       <c r="H23" s="2">
         <v>32</v>
       </c>
       <c r="I23" s="20">
         <f t="shared" si="1"/>
-        <v>44912.960000000006</v>
+        <v>44815.56</v>
       </c>
       <c r="J23" s="16">
         <f>IF(ISBLANK(K23),I23+(H23/(Timeline!$B$3/7)),K23)</f>
-        <v>44921.920000000006</v>
+        <v>44824.52</v>
       </c>
       <c r="K23" s="23"/>
       <c r="L23" s="2" t="s">
@@ -2899,22 +2932,22 @@
       </c>
       <c r="F24" s="20">
         <f t="shared" si="0"/>
-        <v>44802.92000000002</v>
+        <v>44728.48000000001</v>
       </c>
       <c r="G24" s="16">
         <f>IF(ISBLANK(K24),F24+(E24/(Timeline!$B$3/7)),K24)</f>
-        <v>44807.400000000023</v>
+        <v>44732.960000000014</v>
       </c>
       <c r="H24" s="2">
         <v>32</v>
       </c>
       <c r="I24" s="20">
         <f t="shared" si="1"/>
-        <v>44921.920000000006</v>
+        <v>44824.52</v>
       </c>
       <c r="J24" s="16">
         <f>IF(ISBLANK(K24),I24+(H24/(Timeline!$B$3/7)),K24)</f>
-        <v>44930.880000000005</v>
+        <v>44833.479999999996</v>
       </c>
       <c r="K24" s="23"/>
       <c r="L24" s="2" t="s">
@@ -2939,22 +2972,22 @@
       </c>
       <c r="F25" s="20">
         <f t="shared" si="0"/>
-        <v>44807.400000000023</v>
+        <v>44732.960000000014</v>
       </c>
       <c r="G25" s="16">
         <f>IF(ISBLANK(K25),F25+(E25/(Timeline!$B$3/7)),K25)</f>
-        <v>44811.60000000002</v>
+        <v>44737.160000000011</v>
       </c>
       <c r="H25" s="2">
         <v>15</v>
       </c>
       <c r="I25" s="20">
         <f t="shared" si="1"/>
-        <v>44930.880000000005</v>
+        <v>44833.479999999996</v>
       </c>
       <c r="J25" s="16">
         <f>IF(ISBLANK(K25),I25+(H25/(Timeline!$B$3/7)),K25)</f>
-        <v>44935.08</v>
+        <v>44837.679999999993</v>
       </c>
       <c r="K25" s="23"/>
       <c r="L25" s="2" t="s">
@@ -2979,22 +3012,22 @@
       </c>
       <c r="F26" s="20">
         <f t="shared" si="0"/>
-        <v>44811.60000000002</v>
+        <v>44737.160000000011</v>
       </c>
       <c r="G26" s="16">
         <f>IF(ISBLANK(K26),F26+(E26/(Timeline!$B$3/7)),K26)</f>
-        <v>44816.080000000024</v>
+        <v>44741.640000000014</v>
       </c>
       <c r="H26" s="2">
         <v>16</v>
       </c>
       <c r="I26" s="20">
         <f t="shared" si="1"/>
-        <v>44935.08</v>
+        <v>44837.679999999993</v>
       </c>
       <c r="J26" s="16">
         <f>IF(ISBLANK(K26),I26+(H26/(Timeline!$B$3/7)),K26)</f>
-        <v>44939.560000000005</v>
+        <v>44842.159999999996</v>
       </c>
       <c r="K26" s="23"/>
       <c r="L26" s="2" t="s">
@@ -3019,22 +3052,22 @@
       </c>
       <c r="F27" s="20">
         <f t="shared" si="0"/>
-        <v>44816.080000000024</v>
+        <v>44741.640000000014</v>
       </c>
       <c r="G27" s="16">
         <f>IF(ISBLANK(K27),F27+(E27/(Timeline!$B$3/7)),K27)</f>
-        <v>44820.560000000027</v>
+        <v>44746.120000000017</v>
       </c>
       <c r="H27" s="2">
         <v>16</v>
       </c>
       <c r="I27" s="20">
         <f t="shared" si="1"/>
-        <v>44939.560000000005</v>
+        <v>44842.159999999996</v>
       </c>
       <c r="J27" s="16">
         <f>IF(ISBLANK(K27),I27+(H27/(Timeline!$B$3/7)),K27)</f>
-        <v>44944.040000000008</v>
+        <v>44846.64</v>
       </c>
       <c r="K27" s="23"/>
       <c r="L27" s="2" t="s">
@@ -3059,22 +3092,22 @@
       </c>
       <c r="F28" s="20">
         <f t="shared" si="0"/>
-        <v>44820.560000000027</v>
+        <v>44746.120000000017</v>
       </c>
       <c r="G28" s="16">
         <f>IF(ISBLANK(K28),F28+(E28/(Timeline!$B$3/7)),K28)</f>
-        <v>44826.160000000025</v>
+        <v>44751.720000000016</v>
       </c>
       <c r="H28" s="2">
         <v>20</v>
       </c>
       <c r="I28" s="20">
         <f t="shared" si="1"/>
-        <v>44944.040000000008</v>
+        <v>44846.64</v>
       </c>
       <c r="J28" s="16">
         <f>IF(ISBLANK(K28),I28+(H28/(Timeline!$B$3/7)),K28)</f>
-        <v>44949.640000000007</v>
+        <v>44852.24</v>
       </c>
       <c r="K28" s="23"/>
       <c r="L28" s="2" t="s">
@@ -3099,22 +3132,22 @@
       </c>
       <c r="F29" s="20">
         <f>IF(ISBLANK(K30),G30,K30)</f>
-        <v>44831.760000000024</v>
+        <v>44757.320000000014</v>
       </c>
       <c r="G29" s="16">
         <f>IF(ISBLANK(K29),F29+(E29/(Timeline!$B$3/7)),K29)</f>
-        <v>44837.360000000022</v>
+        <v>44762.920000000013</v>
       </c>
       <c r="H29" s="2">
         <v>20</v>
       </c>
       <c r="I29" s="20">
         <f>IF(ISBLANK(K30),J30,K30)</f>
-        <v>44955.240000000005</v>
+        <v>44857.84</v>
       </c>
       <c r="J29" s="16">
         <f>IF(ISBLANK(K29),I29+(H29/(Timeline!$B$3/7)),K29)</f>
-        <v>44960.840000000004</v>
+        <v>44863.439999999995</v>
       </c>
       <c r="K29" s="23"/>
       <c r="L29" s="2" t="s">
@@ -3139,22 +3172,22 @@
       </c>
       <c r="F30" s="20">
         <f t="shared" ref="F30:F31" si="2">IF(ISBLANK(K28),G28,K28)</f>
-        <v>44826.160000000025</v>
+        <v>44751.720000000016</v>
       </c>
       <c r="G30" s="16">
         <f>IF(ISBLANK(K30),F30+(E30/(Timeline!$B$3/7)),K30)</f>
-        <v>44831.760000000024</v>
+        <v>44757.320000000014</v>
       </c>
       <c r="H30" s="2">
         <v>20</v>
       </c>
       <c r="I30" s="20">
         <f t="shared" ref="I30:I31" si="3">IF(ISBLANK(K28),J28,K28)</f>
-        <v>44949.640000000007</v>
+        <v>44852.24</v>
       </c>
       <c r="J30" s="16">
         <f>IF(ISBLANK(K30),I30+(H30/(Timeline!$B$3/7)),K30)</f>
-        <v>44955.240000000005</v>
+        <v>44857.84</v>
       </c>
       <c r="K30" s="23"/>
       <c r="L30" s="2" t="s">
@@ -3179,22 +3212,22 @@
       </c>
       <c r="F31" s="20">
         <f t="shared" si="2"/>
-        <v>44837.360000000022</v>
+        <v>44762.920000000013</v>
       </c>
       <c r="G31" s="16">
         <f>IF(ISBLANK(K31),F31+(E31/(Timeline!$B$3/7)),K31)</f>
-        <v>44842.960000000021</v>
+        <v>44768.520000000011</v>
       </c>
       <c r="H31" s="2">
         <v>20</v>
       </c>
       <c r="I31" s="20">
         <f t="shared" si="3"/>
-        <v>44960.840000000004</v>
+        <v>44863.439999999995</v>
       </c>
       <c r="J31" s="16">
         <f>IF(ISBLANK(K31),I31+(H31/(Timeline!$B$3/7)),K31)</f>
-        <v>44966.44</v>
+        <v>44869.039999999994</v>
       </c>
       <c r="K31" s="23"/>
       <c r="L31" s="2" t="s">
@@ -3219,22 +3252,22 @@
       </c>
       <c r="F32" s="20">
         <f t="shared" ref="F32:F41" si="4">IF(ISBLANK(K31),G31,K31)</f>
-        <v>44842.960000000021</v>
+        <v>44768.520000000011</v>
       </c>
       <c r="G32" s="16">
         <f>IF(ISBLANK(K32),F32+(E32/(Timeline!$B$3/7)),K32)</f>
-        <v>44855.280000000021</v>
+        <v>44780.840000000011</v>
       </c>
       <c r="H32" s="2">
         <v>66</v>
       </c>
       <c r="I32" s="20">
         <f t="shared" ref="I32:I41" si="5">IF(ISBLANK(K31),J31,K31)</f>
-        <v>44966.44</v>
+        <v>44869.039999999994</v>
       </c>
       <c r="J32" s="16">
         <f>IF(ISBLANK(K32),I32+(H32/(Timeline!$B$3/7)),K32)</f>
-        <v>44984.920000000006</v>
+        <v>44887.519999999997</v>
       </c>
       <c r="K32" s="23"/>
       <c r="L32" s="2" t="s">
@@ -3259,22 +3292,22 @@
       </c>
       <c r="F33" s="20">
         <f t="shared" si="4"/>
-        <v>44855.280000000021</v>
+        <v>44780.840000000011</v>
       </c>
       <c r="G33" s="16">
         <f>IF(ISBLANK(K33),F33+(E33/(Timeline!$B$3/7)),K33)</f>
-        <v>44875.440000000024</v>
+        <v>44801.000000000015</v>
       </c>
       <c r="H33" s="2">
         <v>72</v>
       </c>
       <c r="I33" s="20">
         <f t="shared" si="5"/>
-        <v>44984.920000000006</v>
+        <v>44887.519999999997</v>
       </c>
       <c r="J33" s="16">
         <f>IF(ISBLANK(K33),I33+(H33/(Timeline!$B$3/7)),K33)</f>
-        <v>45005.080000000009</v>
+        <v>44907.68</v>
       </c>
       <c r="K33" s="23"/>
       <c r="L33" s="2" t="s">
@@ -3299,22 +3332,22 @@
       </c>
       <c r="F34" s="20">
         <f t="shared" si="4"/>
-        <v>44875.440000000024</v>
+        <v>44801.000000000015</v>
       </c>
       <c r="G34" s="16">
         <f>IF(ISBLANK(K34),F34+(E34/(Timeline!$B$3/7)),K34)</f>
-        <v>44888.880000000026</v>
+        <v>44814.440000000017</v>
       </c>
       <c r="H34" s="2">
         <v>60</v>
       </c>
       <c r="I34" s="20">
         <f t="shared" si="5"/>
-        <v>45005.080000000009</v>
+        <v>44907.68</v>
       </c>
       <c r="J34" s="16">
         <f>IF(ISBLANK(K34),I34+(H34/(Timeline!$B$3/7)),K34)</f>
-        <v>45021.880000000012</v>
+        <v>44924.480000000003</v>
       </c>
       <c r="K34" s="23"/>
       <c r="L34" s="21" t="s">
@@ -3339,22 +3372,22 @@
       </c>
       <c r="F35" s="20">
         <f t="shared" si="4"/>
-        <v>44888.880000000026</v>
+        <v>44814.440000000017</v>
       </c>
       <c r="G35" s="16">
         <f>IF(ISBLANK(K35),F35+(E35/(Timeline!$B$3/7)),K35)</f>
-        <v>44895.600000000028</v>
+        <v>44821.160000000018</v>
       </c>
       <c r="H35" s="2">
         <v>32</v>
       </c>
       <c r="I35" s="20">
         <f t="shared" si="5"/>
-        <v>45021.880000000012</v>
+        <v>44924.480000000003</v>
       </c>
       <c r="J35" s="16">
         <f>IF(ISBLANK(K35),I35+(H35/(Timeline!$B$3/7)),K35)</f>
-        <v>45030.840000000011</v>
+        <v>44933.440000000002</v>
       </c>
       <c r="K35" s="23"/>
       <c r="L35" s="2" t="s">
@@ -3379,22 +3412,22 @@
       </c>
       <c r="F36" s="20">
         <f t="shared" si="4"/>
-        <v>44895.600000000028</v>
+        <v>44821.160000000018</v>
       </c>
       <c r="G36" s="16">
         <f>IF(ISBLANK(K36),F36+(E36/(Timeline!$B$3/7)),K36)</f>
-        <v>44910.72000000003</v>
+        <v>44836.280000000021</v>
       </c>
       <c r="H36" s="2">
         <v>72</v>
       </c>
       <c r="I36" s="20">
         <f t="shared" si="5"/>
-        <v>45030.840000000011</v>
+        <v>44933.440000000002</v>
       </c>
       <c r="J36" s="16">
         <f>IF(ISBLANK(K36),I36+(H36/(Timeline!$B$3/7)),K36)</f>
-        <v>45051.000000000015</v>
+        <v>44953.600000000006</v>
       </c>
       <c r="K36" s="23"/>
       <c r="L36" s="2" t="s">
@@ -3419,22 +3452,22 @@
       </c>
       <c r="F37" s="20">
         <f t="shared" si="4"/>
-        <v>44910.72000000003</v>
+        <v>44836.280000000021</v>
       </c>
       <c r="G37" s="16">
         <f>IF(ISBLANK(K37),F37+(E37/(Timeline!$B$3/7)),K37)</f>
-        <v>44938.72000000003</v>
+        <v>44864.280000000021</v>
       </c>
       <c r="H37" s="2">
         <v>100</v>
       </c>
       <c r="I37" s="20">
         <f t="shared" si="5"/>
-        <v>45051.000000000015</v>
+        <v>44953.600000000006</v>
       </c>
       <c r="J37" s="16">
         <f>IF(ISBLANK(K37),I37+(H37/(Timeline!$B$3/7)),K37)</f>
-        <v>45079.000000000015</v>
+        <v>44981.600000000006</v>
       </c>
       <c r="K37" s="23"/>
       <c r="L37" s="2" t="s">
@@ -3459,22 +3492,22 @@
       </c>
       <c r="F38" s="20">
         <f t="shared" si="4"/>
-        <v>44938.72000000003</v>
+        <v>44864.280000000021</v>
       </c>
       <c r="G38" s="16">
         <f>IF(ISBLANK(K38),F38+(E38/(Timeline!$B$3/7)),K38)</f>
-        <v>44966.72000000003</v>
+        <v>44892.280000000021</v>
       </c>
       <c r="H38" s="2">
         <v>100</v>
       </c>
       <c r="I38" s="20">
         <f t="shared" si="5"/>
-        <v>45079.000000000015</v>
+        <v>44981.600000000006</v>
       </c>
       <c r="J38" s="16">
         <f>IF(ISBLANK(K38),I38+(H38/(Timeline!$B$3/7)),K38)</f>
-        <v>45107.000000000015</v>
+        <v>45009.600000000006</v>
       </c>
       <c r="K38" s="23"/>
       <c r="L38" s="2" t="s">
@@ -3499,22 +3532,22 @@
       </c>
       <c r="F39" s="20">
         <f t="shared" si="4"/>
-        <v>44966.72000000003</v>
+        <v>44892.280000000021</v>
       </c>
       <c r="G39" s="16">
         <f>IF(ISBLANK(K39),F39+(E39/(Timeline!$B$3/7)),K39)</f>
-        <v>44980.160000000033</v>
+        <v>44905.720000000023</v>
       </c>
       <c r="H39" s="2">
         <v>48</v>
       </c>
       <c r="I39" s="20">
         <f t="shared" si="5"/>
-        <v>45107.000000000015</v>
+        <v>45009.600000000006</v>
       </c>
       <c r="J39" s="16">
         <f>IF(ISBLANK(K39),I39+(H39/(Timeline!$B$3/7)),K39)</f>
-        <v>45120.440000000017</v>
+        <v>45023.040000000008</v>
       </c>
       <c r="K39" s="23"/>
       <c r="L39" s="2" t="s">
@@ -3539,22 +3572,22 @@
       </c>
       <c r="F40" s="20">
         <f t="shared" si="4"/>
-        <v>44980.160000000033</v>
+        <v>44905.720000000023</v>
       </c>
       <c r="G40" s="16">
         <f>IF(ISBLANK(K40),F40+(E40/(Timeline!$B$3/7)),K40)</f>
-        <v>44986.880000000034</v>
+        <v>44912.440000000024</v>
       </c>
       <c r="H40" s="2">
         <v>24</v>
       </c>
       <c r="I40" s="20">
         <f t="shared" si="5"/>
-        <v>45120.440000000017</v>
+        <v>45023.040000000008</v>
       </c>
       <c r="J40" s="16">
         <f>IF(ISBLANK(K40),I40+(H40/(Timeline!$B$3/7)),K40)</f>
-        <v>45127.160000000018</v>
+        <v>45029.760000000009</v>
       </c>
       <c r="K40" s="23"/>
       <c r="L40" s="2" t="s">
@@ -3573,22 +3606,22 @@
       </c>
       <c r="F41" s="20">
         <f t="shared" si="4"/>
-        <v>44986.880000000034</v>
+        <v>44912.440000000024</v>
       </c>
       <c r="G41" s="16">
         <f>IF(ISBLANK(K41),F41+(E41/(Timeline!$B$3/7)),K41)</f>
-        <v>45014.880000000034</v>
+        <v>44940.440000000024</v>
       </c>
       <c r="H41" s="2">
         <v>100</v>
       </c>
       <c r="I41" s="20">
         <f t="shared" si="5"/>
-        <v>45127.160000000018</v>
+        <v>45029.760000000009</v>
       </c>
       <c r="J41" s="16">
         <f>IF(ISBLANK(K41),I41+(H41/(Timeline!$B$3/7)),K41)</f>
-        <v>45155.160000000018</v>
+        <v>45057.760000000009</v>
       </c>
       <c r="K41" s="31"/>
     </row>
@@ -3644,5 +3677,6 @@
     <hyperlink ref="A41" r:id="rId47" location="final-project" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId48"/>
 </worksheet>
 </file>
--- a/CS Course/Copy of OSSU CS Timeline .xlsx
+++ b/CS Course/Copy of OSSU CS Timeline .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxp\Desktop\AI_for_learning\CS Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEA4875-D9C4-47A7-BFCF-0021152D1EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14BAE26-5BFB-4F89-9864-E249E7DE2DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
   <si>
     <t>Start Date</t>
   </si>
@@ -668,16 +668,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -925,94 +925,94 @@
                   <c:v>44584</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44605.84</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44624.039999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44632.439999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44650.639999999992</c:v>
+                  <c:v>44585</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44657.359999999993</c:v>
+                  <c:v>44591.72</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44669.119999999995</c:v>
+                  <c:v>44603.48</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44689.279999999999</c:v>
+                  <c:v>44623.640000000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44706.080000000002</c:v>
+                  <c:v>44640.44000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44715.040000000001</c:v>
+                  <c:v>44649.400000000009</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44719.520000000004</c:v>
+                  <c:v>44653.880000000012</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44724.000000000007</c:v>
+                  <c:v>44658.360000000015</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44728.48000000001</c:v>
+                  <c:v>44662.840000000018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44732.960000000014</c:v>
+                  <c:v>44667.320000000022</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44737.160000000011</c:v>
+                  <c:v>44671.520000000019</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44741.640000000014</c:v>
+                  <c:v>44676.000000000022</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44746.120000000017</c:v>
+                  <c:v>44680.480000000025</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44751.720000000016</c:v>
+                  <c:v>44686.080000000024</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44762.920000000013</c:v>
+                  <c:v>44697.280000000021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44757.320000000014</c:v>
+                  <c:v>44691.680000000022</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44768.520000000011</c:v>
+                  <c:v>44702.880000000019</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44780.840000000011</c:v>
+                  <c:v>44715.200000000019</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44801.000000000015</c:v>
+                  <c:v>44735.360000000022</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44814.440000000017</c:v>
+                  <c:v>44748.800000000025</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44821.160000000018</c:v>
+                  <c:v>44755.520000000026</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44836.280000000021</c:v>
+                  <c:v>44770.640000000029</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44864.280000000021</c:v>
+                  <c:v>44798.640000000029</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44892.280000000021</c:v>
+                  <c:v>44826.640000000029</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44905.720000000023</c:v>
+                  <c:v>44840.080000000031</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44912.440000000024</c:v>
+                  <c:v>44846.800000000032</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44940.440000000024</c:v>
+                  <c:v>44874.800000000032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,94 +1213,94 @@
                   <c:v>44584</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44620.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44656.800000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44673.600000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44691.8</c:v>
+                  <c:v>44585</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44698.520000000004</c:v>
+                  <c:v>44591.72</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44720.36</c:v>
+                  <c:v>44613.56</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44750.6</c:v>
+                  <c:v>44643.799999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44770.76</c:v>
+                  <c:v>44663.96</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44797.64</c:v>
+                  <c:v>44690.84</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44806.6</c:v>
+                  <c:v>44699.799999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44815.56</c:v>
+                  <c:v>44708.759999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44824.52</c:v>
+                  <c:v>44717.719999999994</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44833.479999999996</c:v>
+                  <c:v>44726.679999999993</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44837.679999999993</c:v>
+                  <c:v>44730.87999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44842.159999999996</c:v>
+                  <c:v>44735.359999999993</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44846.64</c:v>
+                  <c:v>44739.839999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44852.24</c:v>
+                  <c:v>44745.439999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44863.439999999995</c:v>
+                  <c:v>44756.639999999992</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44857.84</c:v>
+                  <c:v>44751.039999999994</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44869.039999999994</c:v>
+                  <c:v>44762.239999999991</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44887.519999999997</c:v>
+                  <c:v>44780.719999999994</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44907.68</c:v>
+                  <c:v>44800.88</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44924.480000000003</c:v>
+                  <c:v>44817.68</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44933.440000000002</c:v>
+                  <c:v>44826.64</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44953.600000000006</c:v>
+                  <c:v>44846.8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44981.600000000006</c:v>
+                  <c:v>44874.8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45009.600000000006</c:v>
+                  <c:v>44902.8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45023.040000000008</c:v>
+                  <c:v>44916.240000000005</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45029.760000000009</c:v>
+                  <c:v>44922.960000000006</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45057.760000000009</c:v>
+                  <c:v>44950.960000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,10 +1755,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1783,11 +1783,11 @@
       </c>
       <c r="C3" s="5">
         <f>'Curriculum Data'!G41</f>
-        <v>44940.440000000024</v>
+        <v>44874.800000000032</v>
       </c>
       <c r="D3" s="5">
         <f>'Curriculum Data'!J41</f>
-        <v>45057.760000000009</v>
+        <v>44950.960000000006</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1957,7 +1957,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2133,7 +2133,7 @@
         <f>IF(ISBLANK(K4),I4+(H4/(Timeline!$B$3/7)),K4)</f>
         <v>null</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="34" t="s">
         <v>119</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -2175,7 +2175,7 @@
         <f>IF(ISBLANK(K5),I5+(H5/(Timeline!$B$3/7)),K5)</f>
         <v>null</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="33" t="s">
         <v>119</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -2217,7 +2217,7 @@
         <f>IF(ISBLANK(K6),I6+(H6/(Timeline!$B$3/7)),K6)</f>
         <v>null</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="33" t="s">
         <v>119</v>
       </c>
       <c r="L6" s="21" t="s">
@@ -2259,7 +2259,7 @@
         <f>IF(ISBLANK(K7),I7+(H7/(Timeline!$B$3/7)),K7)</f>
         <v>null</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="33" t="s">
         <v>119</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -2301,7 +2301,7 @@
         <f>IF(ISBLANK(K8),I8+(H8/(Timeline!$B$3/7)),K8)</f>
         <v>null</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="33" t="s">
         <v>119</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -2454,9 +2454,9 @@
         <f t="shared" si="0"/>
         <v>44584</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="16" t="str">
         <f>IF(ISBLANK(K12),F12+(E12/(Timeline!$B$3/7)),K12)</f>
-        <v>44605.84</v>
+        <v>null</v>
       </c>
       <c r="H12" s="2">
         <v>130</v>
@@ -2465,11 +2465,13 @@
         <f t="shared" si="1"/>
         <v>44584</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="16" t="str">
         <f>IF(ISBLANK(K12),I12+(H12/(Timeline!$B$3/7)),K12)</f>
-        <v>44620.4</v>
-      </c>
-      <c r="K12" s="23"/>
+        <v>null</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="L12" s="21" t="s">
         <v>50</v>
       </c>
@@ -2490,26 +2492,28 @@
       <c r="E13" s="2">
         <v>65</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>44605.84</v>
-      </c>
-      <c r="G13" s="16">
+        <v>null</v>
+      </c>
+      <c r="G13" s="16" t="str">
         <f>IF(ISBLANK(K13),F13+(E13/(Timeline!$B$3/7)),K13)</f>
-        <v>44624.039999999994</v>
+        <v>null</v>
       </c>
       <c r="H13" s="2">
         <v>130</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>44620.4</v>
-      </c>
-      <c r="J13" s="16">
+        <v>null</v>
+      </c>
+      <c r="J13" s="16" t="str">
         <f>IF(ISBLANK(K13),I13+(H13/(Timeline!$B$3/7)),K13)</f>
-        <v>44656.800000000003</v>
-      </c>
-      <c r="K13" s="23"/>
+        <v>null</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="L13" s="2" t="s">
         <v>53</v>
       </c>
@@ -2530,26 +2534,28 @@
       <c r="E14" s="2">
         <v>30</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>44624.039999999994</v>
-      </c>
-      <c r="G14" s="16">
+        <v>null</v>
+      </c>
+      <c r="G14" s="16" t="str">
         <f>IF(ISBLANK(K14),F14+(E14/(Timeline!$B$3/7)),K14)</f>
-        <v>44632.439999999995</v>
+        <v>null</v>
       </c>
       <c r="H14" s="2">
         <v>60</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>44656.800000000003</v>
-      </c>
-      <c r="J14" s="16">
+        <v>null</v>
+      </c>
+      <c r="J14" s="16" t="str">
         <f>IF(ISBLANK(K14),I14+(H14/(Timeline!$B$3/7)),K14)</f>
-        <v>44673.600000000006</v>
-      </c>
-      <c r="K14" s="23"/>
+        <v>null</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="L14" s="2" t="s">
         <v>55</v>
       </c>
@@ -2570,26 +2576,28 @@
       <c r="E15" s="2">
         <v>65</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>44632.439999999995</v>
+        <v>null</v>
       </c>
       <c r="G15" s="16">
         <f>IF(ISBLANK(K15),F15+(E15/(Timeline!$B$3/7)),K15)</f>
-        <v>44650.639999999992</v>
+        <v>44585</v>
       </c>
       <c r="H15" s="2">
         <v>65</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>44673.600000000006</v>
+        <v>null</v>
       </c>
       <c r="J15" s="16">
         <f>IF(ISBLANK(K15),I15+(H15/(Timeline!$B$3/7)),K15)</f>
-        <v>44691.8</v>
-      </c>
-      <c r="K15" s="23"/>
+        <v>44585</v>
+      </c>
+      <c r="K15" s="17">
+        <v>44585</v>
+      </c>
       <c r="L15" s="2" t="s">
         <v>58</v>
       </c>
@@ -2612,22 +2620,22 @@
       </c>
       <c r="F16" s="20">
         <f t="shared" si="0"/>
-        <v>44650.639999999992</v>
+        <v>44585</v>
       </c>
       <c r="G16" s="16">
         <f>IF(ISBLANK(K16),F16+(E16/(Timeline!$B$3/7)),K16)</f>
-        <v>44657.359999999993</v>
+        <v>44591.72</v>
       </c>
       <c r="H16" s="2">
         <v>24</v>
       </c>
       <c r="I16" s="20">
         <f t="shared" si="1"/>
-        <v>44691.8</v>
+        <v>44585</v>
       </c>
       <c r="J16" s="16">
         <f>IF(ISBLANK(K16),I16+(H16/(Timeline!$B$3/7)),K16)</f>
-        <v>44698.520000000004</v>
+        <v>44591.72</v>
       </c>
       <c r="K16" s="23"/>
       <c r="L16" s="2" t="s">
@@ -2652,22 +2660,22 @@
       </c>
       <c r="F17" s="20">
         <f t="shared" si="0"/>
-        <v>44657.359999999993</v>
+        <v>44591.72</v>
       </c>
       <c r="G17" s="16">
         <f>IF(ISBLANK(K17),F17+(E17/(Timeline!$B$3/7)),K17)</f>
-        <v>44669.119999999995</v>
+        <v>44603.48</v>
       </c>
       <c r="H17" s="2">
         <v>78</v>
       </c>
       <c r="I17" s="20">
         <f t="shared" si="1"/>
-        <v>44698.520000000004</v>
+        <v>44591.72</v>
       </c>
       <c r="J17" s="16">
         <f>IF(ISBLANK(K17),I17+(H17/(Timeline!$B$3/7)),K17)</f>
-        <v>44720.36</v>
+        <v>44613.56</v>
       </c>
       <c r="K17" s="23"/>
       <c r="L17" s="2" t="s">
@@ -2692,22 +2700,22 @@
       </c>
       <c r="F18" s="20">
         <f t="shared" si="0"/>
-        <v>44669.119999999995</v>
+        <v>44603.48</v>
       </c>
       <c r="G18" s="16">
         <f>IF(ISBLANK(K18),F18+(E18/(Timeline!$B$3/7)),K18)</f>
-        <v>44689.279999999999</v>
+        <v>44623.640000000007</v>
       </c>
       <c r="H18" s="2">
         <v>108</v>
       </c>
       <c r="I18" s="20">
         <f t="shared" si="1"/>
-        <v>44720.36</v>
+        <v>44613.56</v>
       </c>
       <c r="J18" s="16">
         <f>IF(ISBLANK(K18),I18+(H18/(Timeline!$B$3/7)),K18)</f>
-        <v>44750.6</v>
+        <v>44643.799999999996</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="21" t="s">
@@ -2732,22 +2740,22 @@
       </c>
       <c r="F19" s="20">
         <f t="shared" si="0"/>
-        <v>44689.279999999999</v>
+        <v>44623.640000000007</v>
       </c>
       <c r="G19" s="16">
         <f>IF(ISBLANK(K19),F19+(E19/(Timeline!$B$3/7)),K19)</f>
-        <v>44706.080000000002</v>
+        <v>44640.44000000001</v>
       </c>
       <c r="H19" s="2">
         <v>72</v>
       </c>
       <c r="I19" s="20">
         <f t="shared" si="1"/>
-        <v>44750.6</v>
+        <v>44643.799999999996</v>
       </c>
       <c r="J19" s="16">
         <f>IF(ISBLANK(K19),I19+(H19/(Timeline!$B$3/7)),K19)</f>
-        <v>44770.76</v>
+        <v>44663.96</v>
       </c>
       <c r="K19" s="23"/>
       <c r="L19" s="28" t="s">
@@ -2772,22 +2780,22 @@
       </c>
       <c r="F20" s="20">
         <f t="shared" si="0"/>
-        <v>44706.080000000002</v>
+        <v>44640.44000000001</v>
       </c>
       <c r="G20" s="16">
         <f>IF(ISBLANK(K20),F20+(E20/(Timeline!$B$3/7)),K20)</f>
-        <v>44715.040000000001</v>
+        <v>44649.400000000009</v>
       </c>
       <c r="H20" s="2">
         <v>96</v>
       </c>
       <c r="I20" s="20">
         <f t="shared" si="1"/>
-        <v>44770.76</v>
+        <v>44663.96</v>
       </c>
       <c r="J20" s="16">
         <f>IF(ISBLANK(K20),I20+(H20/(Timeline!$B$3/7)),K20)</f>
-        <v>44797.64</v>
+        <v>44690.84</v>
       </c>
       <c r="K20" s="23"/>
       <c r="L20" s="2" t="s">
@@ -2812,22 +2820,22 @@
       </c>
       <c r="F21" s="20">
         <f t="shared" si="0"/>
-        <v>44715.040000000001</v>
+        <v>44649.400000000009</v>
       </c>
       <c r="G21" s="16">
         <f>IF(ISBLANK(K21),F21+(E21/(Timeline!$B$3/7)),K21)</f>
-        <v>44719.520000000004</v>
+        <v>44653.880000000012</v>
       </c>
       <c r="H21" s="2">
         <v>32</v>
       </c>
       <c r="I21" s="20">
         <f t="shared" si="1"/>
-        <v>44797.64</v>
+        <v>44690.84</v>
       </c>
       <c r="J21" s="16">
         <f>IF(ISBLANK(K21),I21+(H21/(Timeline!$B$3/7)),K21)</f>
-        <v>44806.6</v>
+        <v>44699.799999999996</v>
       </c>
       <c r="K21" s="23"/>
       <c r="L21" s="2" t="s">
@@ -2852,22 +2860,22 @@
       </c>
       <c r="F22" s="20">
         <f t="shared" si="0"/>
-        <v>44719.520000000004</v>
+        <v>44653.880000000012</v>
       </c>
       <c r="G22" s="16">
         <f>IF(ISBLANK(K22),F22+(E22/(Timeline!$B$3/7)),K22)</f>
-        <v>44724.000000000007</v>
+        <v>44658.360000000015</v>
       </c>
       <c r="H22" s="2">
         <v>32</v>
       </c>
       <c r="I22" s="20">
         <f t="shared" si="1"/>
-        <v>44806.6</v>
+        <v>44699.799999999996</v>
       </c>
       <c r="J22" s="16">
         <f>IF(ISBLANK(K22),I22+(H22/(Timeline!$B$3/7)),K22)</f>
-        <v>44815.56</v>
+        <v>44708.759999999995</v>
       </c>
       <c r="K22" s="23"/>
       <c r="L22" s="2" t="s">
@@ -2892,22 +2900,22 @@
       </c>
       <c r="F23" s="20">
         <f t="shared" si="0"/>
-        <v>44724.000000000007</v>
+        <v>44658.360000000015</v>
       </c>
       <c r="G23" s="16">
         <f>IF(ISBLANK(K23),F23+(E23/(Timeline!$B$3/7)),K23)</f>
-        <v>44728.48000000001</v>
+        <v>44662.840000000018</v>
       </c>
       <c r="H23" s="2">
         <v>32</v>
       </c>
       <c r="I23" s="20">
         <f t="shared" si="1"/>
-        <v>44815.56</v>
+        <v>44708.759999999995</v>
       </c>
       <c r="J23" s="16">
         <f>IF(ISBLANK(K23),I23+(H23/(Timeline!$B$3/7)),K23)</f>
-        <v>44824.52</v>
+        <v>44717.719999999994</v>
       </c>
       <c r="K23" s="23"/>
       <c r="L23" s="2" t="s">
@@ -2932,22 +2940,22 @@
       </c>
       <c r="F24" s="20">
         <f t="shared" si="0"/>
-        <v>44728.48000000001</v>
+        <v>44662.840000000018</v>
       </c>
       <c r="G24" s="16">
         <f>IF(ISBLANK(K24),F24+(E24/(Timeline!$B$3/7)),K24)</f>
-        <v>44732.960000000014</v>
+        <v>44667.320000000022</v>
       </c>
       <c r="H24" s="2">
         <v>32</v>
       </c>
       <c r="I24" s="20">
         <f t="shared" si="1"/>
-        <v>44824.52</v>
+        <v>44717.719999999994</v>
       </c>
       <c r="J24" s="16">
         <f>IF(ISBLANK(K24),I24+(H24/(Timeline!$B$3/7)),K24)</f>
-        <v>44833.479999999996</v>
+        <v>44726.679999999993</v>
       </c>
       <c r="K24" s="23"/>
       <c r="L24" s="2" t="s">
@@ -2972,22 +2980,22 @@
       </c>
       <c r="F25" s="20">
         <f t="shared" si="0"/>
-        <v>44732.960000000014</v>
+        <v>44667.320000000022</v>
       </c>
       <c r="G25" s="16">
         <f>IF(ISBLANK(K25),F25+(E25/(Timeline!$B$3/7)),K25)</f>
-        <v>44737.160000000011</v>
+        <v>44671.520000000019</v>
       </c>
       <c r="H25" s="2">
         <v>15</v>
       </c>
       <c r="I25" s="20">
         <f t="shared" si="1"/>
-        <v>44833.479999999996</v>
+        <v>44726.679999999993</v>
       </c>
       <c r="J25" s="16">
         <f>IF(ISBLANK(K25),I25+(H25/(Timeline!$B$3/7)),K25)</f>
-        <v>44837.679999999993</v>
+        <v>44730.87999999999</v>
       </c>
       <c r="K25" s="23"/>
       <c r="L25" s="2" t="s">
@@ -3012,22 +3020,22 @@
       </c>
       <c r="F26" s="20">
         <f t="shared" si="0"/>
-        <v>44737.160000000011</v>
+        <v>44671.520000000019</v>
       </c>
       <c r="G26" s="16">
         <f>IF(ISBLANK(K26),F26+(E26/(Timeline!$B$3/7)),K26)</f>
-        <v>44741.640000000014</v>
+        <v>44676.000000000022</v>
       </c>
       <c r="H26" s="2">
         <v>16</v>
       </c>
       <c r="I26" s="20">
         <f t="shared" si="1"/>
-        <v>44837.679999999993</v>
+        <v>44730.87999999999</v>
       </c>
       <c r="J26" s="16">
         <f>IF(ISBLANK(K26),I26+(H26/(Timeline!$B$3/7)),K26)</f>
-        <v>44842.159999999996</v>
+        <v>44735.359999999993</v>
       </c>
       <c r="K26" s="23"/>
       <c r="L26" s="2" t="s">
@@ -3052,22 +3060,22 @@
       </c>
       <c r="F27" s="20">
         <f t="shared" si="0"/>
-        <v>44741.640000000014</v>
+        <v>44676.000000000022</v>
       </c>
       <c r="G27" s="16">
         <f>IF(ISBLANK(K27),F27+(E27/(Timeline!$B$3/7)),K27)</f>
-        <v>44746.120000000017</v>
+        <v>44680.480000000025</v>
       </c>
       <c r="H27" s="2">
         <v>16</v>
       </c>
       <c r="I27" s="20">
         <f t="shared" si="1"/>
-        <v>44842.159999999996</v>
+        <v>44735.359999999993</v>
       </c>
       <c r="J27" s="16">
         <f>IF(ISBLANK(K27),I27+(H27/(Timeline!$B$3/7)),K27)</f>
-        <v>44846.64</v>
+        <v>44739.839999999997</v>
       </c>
       <c r="K27" s="23"/>
       <c r="L27" s="2" t="s">
@@ -3092,22 +3100,22 @@
       </c>
       <c r="F28" s="20">
         <f t="shared" si="0"/>
-        <v>44746.120000000017</v>
+        <v>44680.480000000025</v>
       </c>
       <c r="G28" s="16">
         <f>IF(ISBLANK(K28),F28+(E28/(Timeline!$B$3/7)),K28)</f>
-        <v>44751.720000000016</v>
+        <v>44686.080000000024</v>
       </c>
       <c r="H28" s="2">
         <v>20</v>
       </c>
       <c r="I28" s="20">
         <f t="shared" si="1"/>
-        <v>44846.64</v>
+        <v>44739.839999999997</v>
       </c>
       <c r="J28" s="16">
         <f>IF(ISBLANK(K28),I28+(H28/(Timeline!$B$3/7)),K28)</f>
-        <v>44852.24</v>
+        <v>44745.439999999995</v>
       </c>
       <c r="K28" s="23"/>
       <c r="L28" s="2" t="s">
@@ -3132,22 +3140,22 @@
       </c>
       <c r="F29" s="20">
         <f>IF(ISBLANK(K30),G30,K30)</f>
-        <v>44757.320000000014</v>
+        <v>44691.680000000022</v>
       </c>
       <c r="G29" s="16">
         <f>IF(ISBLANK(K29),F29+(E29/(Timeline!$B$3/7)),K29)</f>
-        <v>44762.920000000013</v>
+        <v>44697.280000000021</v>
       </c>
       <c r="H29" s="2">
         <v>20</v>
       </c>
       <c r="I29" s="20">
         <f>IF(ISBLANK(K30),J30,K30)</f>
-        <v>44857.84</v>
+        <v>44751.039999999994</v>
       </c>
       <c r="J29" s="16">
         <f>IF(ISBLANK(K29),I29+(H29/(Timeline!$B$3/7)),K29)</f>
-        <v>44863.439999999995</v>
+        <v>44756.639999999992</v>
       </c>
       <c r="K29" s="23"/>
       <c r="L29" s="2" t="s">
@@ -3172,22 +3180,22 @@
       </c>
       <c r="F30" s="20">
         <f t="shared" ref="F30:F31" si="2">IF(ISBLANK(K28),G28,K28)</f>
-        <v>44751.720000000016</v>
+        <v>44686.080000000024</v>
       </c>
       <c r="G30" s="16">
         <f>IF(ISBLANK(K30),F30+(E30/(Timeline!$B$3/7)),K30)</f>
-        <v>44757.320000000014</v>
+        <v>44691.680000000022</v>
       </c>
       <c r="H30" s="2">
         <v>20</v>
       </c>
       <c r="I30" s="20">
         <f t="shared" ref="I30:I31" si="3">IF(ISBLANK(K28),J28,K28)</f>
-        <v>44852.24</v>
+        <v>44745.439999999995</v>
       </c>
       <c r="J30" s="16">
         <f>IF(ISBLANK(K30),I30+(H30/(Timeline!$B$3/7)),K30)</f>
-        <v>44857.84</v>
+        <v>44751.039999999994</v>
       </c>
       <c r="K30" s="23"/>
       <c r="L30" s="2" t="s">
@@ -3212,22 +3220,22 @@
       </c>
       <c r="F31" s="20">
         <f t="shared" si="2"/>
-        <v>44762.920000000013</v>
+        <v>44697.280000000021</v>
       </c>
       <c r="G31" s="16">
         <f>IF(ISBLANK(K31),F31+(E31/(Timeline!$B$3/7)),K31)</f>
-        <v>44768.520000000011</v>
+        <v>44702.880000000019</v>
       </c>
       <c r="H31" s="2">
         <v>20</v>
       </c>
       <c r="I31" s="20">
         <f t="shared" si="3"/>
-        <v>44863.439999999995</v>
+        <v>44756.639999999992</v>
       </c>
       <c r="J31" s="16">
         <f>IF(ISBLANK(K31),I31+(H31/(Timeline!$B$3/7)),K31)</f>
-        <v>44869.039999999994</v>
+        <v>44762.239999999991</v>
       </c>
       <c r="K31" s="23"/>
       <c r="L31" s="2" t="s">
@@ -3252,22 +3260,22 @@
       </c>
       <c r="F32" s="20">
         <f t="shared" ref="F32:F41" si="4">IF(ISBLANK(K31),G31,K31)</f>
-        <v>44768.520000000011</v>
+        <v>44702.880000000019</v>
       </c>
       <c r="G32" s="16">
         <f>IF(ISBLANK(K32),F32+(E32/(Timeline!$B$3/7)),K32)</f>
-        <v>44780.840000000011</v>
+        <v>44715.200000000019</v>
       </c>
       <c r="H32" s="2">
         <v>66</v>
       </c>
       <c r="I32" s="20">
         <f t="shared" ref="I32:I41" si="5">IF(ISBLANK(K31),J31,K31)</f>
-        <v>44869.039999999994</v>
+        <v>44762.239999999991</v>
       </c>
       <c r="J32" s="16">
         <f>IF(ISBLANK(K32),I32+(H32/(Timeline!$B$3/7)),K32)</f>
-        <v>44887.519999999997</v>
+        <v>44780.719999999994</v>
       </c>
       <c r="K32" s="23"/>
       <c r="L32" s="2" t="s">
@@ -3292,22 +3300,22 @@
       </c>
       <c r="F33" s="20">
         <f t="shared" si="4"/>
-        <v>44780.840000000011</v>
+        <v>44715.200000000019</v>
       </c>
       <c r="G33" s="16">
         <f>IF(ISBLANK(K33),F33+(E33/(Timeline!$B$3/7)),K33)</f>
-        <v>44801.000000000015</v>
+        <v>44735.360000000022</v>
       </c>
       <c r="H33" s="2">
         <v>72</v>
       </c>
       <c r="I33" s="20">
         <f t="shared" si="5"/>
-        <v>44887.519999999997</v>
+        <v>44780.719999999994</v>
       </c>
       <c r="J33" s="16">
         <f>IF(ISBLANK(K33),I33+(H33/(Timeline!$B$3/7)),K33)</f>
-        <v>44907.68</v>
+        <v>44800.88</v>
       </c>
       <c r="K33" s="23"/>
       <c r="L33" s="2" t="s">
@@ -3332,22 +3340,22 @@
       </c>
       <c r="F34" s="20">
         <f t="shared" si="4"/>
-        <v>44801.000000000015</v>
+        <v>44735.360000000022</v>
       </c>
       <c r="G34" s="16">
         <f>IF(ISBLANK(K34),F34+(E34/(Timeline!$B$3/7)),K34)</f>
-        <v>44814.440000000017</v>
+        <v>44748.800000000025</v>
       </c>
       <c r="H34" s="2">
         <v>60</v>
       </c>
       <c r="I34" s="20">
         <f t="shared" si="5"/>
-        <v>44907.68</v>
+        <v>44800.88</v>
       </c>
       <c r="J34" s="16">
         <f>IF(ISBLANK(K34),I34+(H34/(Timeline!$B$3/7)),K34)</f>
-        <v>44924.480000000003</v>
+        <v>44817.68</v>
       </c>
       <c r="K34" s="23"/>
       <c r="L34" s="21" t="s">
@@ -3372,22 +3380,22 @@
       </c>
       <c r="F35" s="20">
         <f t="shared" si="4"/>
-        <v>44814.440000000017</v>
+        <v>44748.800000000025</v>
       </c>
       <c r="G35" s="16">
         <f>IF(ISBLANK(K35),F35+(E35/(Timeline!$B$3/7)),K35)</f>
-        <v>44821.160000000018</v>
+        <v>44755.520000000026</v>
       </c>
       <c r="H35" s="2">
         <v>32</v>
       </c>
       <c r="I35" s="20">
         <f t="shared" si="5"/>
-        <v>44924.480000000003</v>
+        <v>44817.68</v>
       </c>
       <c r="J35" s="16">
         <f>IF(ISBLANK(K35),I35+(H35/(Timeline!$B$3/7)),K35)</f>
-        <v>44933.440000000002</v>
+        <v>44826.64</v>
       </c>
       <c r="K35" s="23"/>
       <c r="L35" s="2" t="s">
@@ -3412,22 +3420,22 @@
       </c>
       <c r="F36" s="20">
         <f t="shared" si="4"/>
-        <v>44821.160000000018</v>
+        <v>44755.520000000026</v>
       </c>
       <c r="G36" s="16">
         <f>IF(ISBLANK(K36),F36+(E36/(Timeline!$B$3/7)),K36)</f>
-        <v>44836.280000000021</v>
+        <v>44770.640000000029</v>
       </c>
       <c r="H36" s="2">
         <v>72</v>
       </c>
       <c r="I36" s="20">
         <f t="shared" si="5"/>
-        <v>44933.440000000002</v>
+        <v>44826.64</v>
       </c>
       <c r="J36" s="16">
         <f>IF(ISBLANK(K36),I36+(H36/(Timeline!$B$3/7)),K36)</f>
-        <v>44953.600000000006</v>
+        <v>44846.8</v>
       </c>
       <c r="K36" s="23"/>
       <c r="L36" s="2" t="s">
@@ -3452,22 +3460,22 @@
       </c>
       <c r="F37" s="20">
         <f t="shared" si="4"/>
-        <v>44836.280000000021</v>
+        <v>44770.640000000029</v>
       </c>
       <c r="G37" s="16">
         <f>IF(ISBLANK(K37),F37+(E37/(Timeline!$B$3/7)),K37)</f>
-        <v>44864.280000000021</v>
+        <v>44798.640000000029</v>
       </c>
       <c r="H37" s="2">
         <v>100</v>
       </c>
       <c r="I37" s="20">
         <f t="shared" si="5"/>
-        <v>44953.600000000006</v>
+        <v>44846.8</v>
       </c>
       <c r="J37" s="16">
         <f>IF(ISBLANK(K37),I37+(H37/(Timeline!$B$3/7)),K37)</f>
-        <v>44981.600000000006</v>
+        <v>44874.8</v>
       </c>
       <c r="K37" s="23"/>
       <c r="L37" s="2" t="s">
@@ -3492,22 +3500,22 @@
       </c>
       <c r="F38" s="20">
         <f t="shared" si="4"/>
-        <v>44864.280000000021</v>
+        <v>44798.640000000029</v>
       </c>
       <c r="G38" s="16">
         <f>IF(ISBLANK(K38),F38+(E38/(Timeline!$B$3/7)),K38)</f>
-        <v>44892.280000000021</v>
+        <v>44826.640000000029</v>
       </c>
       <c r="H38" s="2">
         <v>100</v>
       </c>
       <c r="I38" s="20">
         <f t="shared" si="5"/>
-        <v>44981.600000000006</v>
+        <v>44874.8</v>
       </c>
       <c r="J38" s="16">
         <f>IF(ISBLANK(K38),I38+(H38/(Timeline!$B$3/7)),K38)</f>
-        <v>45009.600000000006</v>
+        <v>44902.8</v>
       </c>
       <c r="K38" s="23"/>
       <c r="L38" s="2" t="s">
@@ -3532,22 +3540,22 @@
       </c>
       <c r="F39" s="20">
         <f t="shared" si="4"/>
-        <v>44892.280000000021</v>
+        <v>44826.640000000029</v>
       </c>
       <c r="G39" s="16">
         <f>IF(ISBLANK(K39),F39+(E39/(Timeline!$B$3/7)),K39)</f>
-        <v>44905.720000000023</v>
+        <v>44840.080000000031</v>
       </c>
       <c r="H39" s="2">
         <v>48</v>
       </c>
       <c r="I39" s="20">
         <f t="shared" si="5"/>
-        <v>45009.600000000006</v>
+        <v>44902.8</v>
       </c>
       <c r="J39" s="16">
         <f>IF(ISBLANK(K39),I39+(H39/(Timeline!$B$3/7)),K39)</f>
-        <v>45023.040000000008</v>
+        <v>44916.240000000005</v>
       </c>
       <c r="K39" s="23"/>
       <c r="L39" s="2" t="s">
@@ -3572,22 +3580,22 @@
       </c>
       <c r="F40" s="20">
         <f t="shared" si="4"/>
-        <v>44905.720000000023</v>
+        <v>44840.080000000031</v>
       </c>
       <c r="G40" s="16">
         <f>IF(ISBLANK(K40),F40+(E40/(Timeline!$B$3/7)),K40)</f>
-        <v>44912.440000000024</v>
+        <v>44846.800000000032</v>
       </c>
       <c r="H40" s="2">
         <v>24</v>
       </c>
       <c r="I40" s="20">
         <f t="shared" si="5"/>
-        <v>45023.040000000008</v>
+        <v>44916.240000000005</v>
       </c>
       <c r="J40" s="16">
         <f>IF(ISBLANK(K40),I40+(H40/(Timeline!$B$3/7)),K40)</f>
-        <v>45029.760000000009</v>
+        <v>44922.960000000006</v>
       </c>
       <c r="K40" s="23"/>
       <c r="L40" s="2" t="s">
@@ -3606,22 +3614,22 @@
       </c>
       <c r="F41" s="20">
         <f t="shared" si="4"/>
-        <v>44912.440000000024</v>
+        <v>44846.800000000032</v>
       </c>
       <c r="G41" s="16">
         <f>IF(ISBLANK(K41),F41+(E41/(Timeline!$B$3/7)),K41)</f>
-        <v>44940.440000000024</v>
+        <v>44874.800000000032</v>
       </c>
       <c r="H41" s="2">
         <v>100</v>
       </c>
       <c r="I41" s="20">
         <f t="shared" si="5"/>
-        <v>45029.760000000009</v>
+        <v>44922.960000000006</v>
       </c>
       <c r="J41" s="16">
         <f>IF(ISBLANK(K41),I41+(H41/(Timeline!$B$3/7)),K41)</f>
-        <v>45057.760000000009</v>
+        <v>44950.960000000006</v>
       </c>
       <c r="K41" s="31"/>
     </row>

--- a/CS Course/Copy of OSSU CS Timeline .xlsx
+++ b/CS Course/Copy of OSSU CS Timeline .xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxp\Desktop\AI_for_learning\CS Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14BAE26-5BFB-4F89-9864-E249E7DE2DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D6D022-E1B3-4E2F-953C-0A2737C11B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Timeline" sheetId="1" r:id="rId1"/>
-    <sheet name="Curriculum Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Timeline" sheetId="1" r:id="rId2"/>
+    <sheet name="Curriculum Data" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="120">
   <si>
     <t>Start Date</t>
   </si>
@@ -195,9 +196,6 @@
   </si>
   <si>
     <t>Calculus 1C: Coordinate Systems &amp; Infinite Series</t>
-  </si>
-  <si>
-    <t>Calculus 1B</t>
   </si>
   <si>
     <t>Mathematics for Computer Science</t>
@@ -435,6 +433,10 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calculus 1B</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -678,6 +680,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -922,10 +934,10 @@
                   <c:v>44582</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>44585</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1210,10 +1222,10 @@
                   <c:v>44582</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>44585</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1731,6 +1743,1155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7725D21E-7449-4F73-A85B-F8786B6311CD}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="64.5703125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="12" style="36" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="36" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="36" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="36" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="36" customWidth="1"/>
+    <col min="9" max="9" width="63.7109375" style="36" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="35">
+        <v>100</v>
+      </c>
+      <c r="F2" s="35">
+        <v>100</v>
+      </c>
+      <c r="G2" s="15">
+        <f>Timeline!A3</f>
+        <v>44566</v>
+      </c>
+      <c r="H2" s="17">
+        <v>44566</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="35">
+        <v>135</v>
+      </c>
+      <c r="F3" s="35">
+        <v>135</v>
+      </c>
+      <c r="G3" s="20">
+        <f>IF(ISBLANK(H2),#REF!,H2)</f>
+        <v>44566</v>
+      </c>
+      <c r="H3" s="17">
+        <v>44568</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="35">
+        <v>56</v>
+      </c>
+      <c r="F4" s="35">
+        <v>70</v>
+      </c>
+      <c r="G4" s="20">
+        <f>IF(ISBLANK(H3),#REF!,H3)</f>
+        <v>44568</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="35">
+        <v>48</v>
+      </c>
+      <c r="F5" s="35">
+        <v>60</v>
+      </c>
+      <c r="G5" s="20" t="str">
+        <f>IF(ISBLANK(H4),#REF!,H4)</f>
+        <v>null</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="35">
+        <v>20</v>
+      </c>
+      <c r="F6" s="35">
+        <v>40</v>
+      </c>
+      <c r="G6" s="20" t="str">
+        <f>IF(ISBLANK(H5),#REF!,H5)</f>
+        <v>null</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="35">
+        <v>12</v>
+      </c>
+      <c r="F7" s="35">
+        <v>24</v>
+      </c>
+      <c r="G7" s="20" t="str">
+        <f>IF(ISBLANK(H6),#REF!,H6)</f>
+        <v>null</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="35">
+        <v>12</v>
+      </c>
+      <c r="F8" s="35">
+        <v>24</v>
+      </c>
+      <c r="G8" s="20" t="str">
+        <f>IF(ISBLANK(H7),#REF!,H7)</f>
+        <v>null</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="35">
+        <v>16</v>
+      </c>
+      <c r="F9" s="35">
+        <v>16</v>
+      </c>
+      <c r="G9" s="20" t="str">
+        <f>IF(ISBLANK(H8),#REF!,H8)</f>
+        <v>null</v>
+      </c>
+      <c r="H9" s="17">
+        <v>44571</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="35">
+        <v>16</v>
+      </c>
+      <c r="F10" s="35">
+        <v>16</v>
+      </c>
+      <c r="G10" s="20">
+        <f>IF(ISBLANK(H9),#REF!,H9)</f>
+        <v>44571</v>
+      </c>
+      <c r="H10" s="17">
+        <v>44582</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="35">
+        <v>8</v>
+      </c>
+      <c r="F11" s="35">
+        <v>20</v>
+      </c>
+      <c r="G11" s="20">
+        <f>IF(ISBLANK(H10),#REF!,H10)</f>
+        <v>44582</v>
+      </c>
+      <c r="H11" s="17">
+        <v>44583</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="35">
+        <v>78</v>
+      </c>
+      <c r="F12" s="35">
+        <v>130</v>
+      </c>
+      <c r="G12" s="40">
+        <v>44584</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="35">
+        <v>65</v>
+      </c>
+      <c r="F13" s="35">
+        <v>130</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="35">
+        <v>30</v>
+      </c>
+      <c r="F14" s="35">
+        <v>60</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="35">
+        <v>65</v>
+      </c>
+      <c r="F15" s="35">
+        <v>65</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="35">
+        <v>24</v>
+      </c>
+      <c r="F16" s="35">
+        <v>24</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="35">
+        <v>42</v>
+      </c>
+      <c r="F17" s="35">
+        <v>78</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="35">
+        <v>72</v>
+      </c>
+      <c r="F18" s="35">
+        <v>108</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="35">
+        <v>60</v>
+      </c>
+      <c r="F19" s="35">
+        <v>72</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="35">
+        <v>32</v>
+      </c>
+      <c r="F20" s="35">
+        <v>96</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="35">
+        <v>16</v>
+      </c>
+      <c r="F21" s="35">
+        <v>32</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="35">
+        <v>16</v>
+      </c>
+      <c r="F22" s="35">
+        <v>32</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="35">
+        <v>16</v>
+      </c>
+      <c r="F23" s="35">
+        <v>32</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="35">
+        <v>16</v>
+      </c>
+      <c r="F24" s="35">
+        <v>32</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="35">
+        <v>15</v>
+      </c>
+      <c r="F25" s="35">
+        <v>15</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="35">
+        <v>16</v>
+      </c>
+      <c r="F26" s="35">
+        <v>16</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="35">
+        <v>16</v>
+      </c>
+      <c r="F27" s="35">
+        <v>16</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="35">
+        <v>20</v>
+      </c>
+      <c r="F28" s="35">
+        <v>20</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="35">
+        <v>20</v>
+      </c>
+      <c r="F29" s="35">
+        <v>20</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="35">
+        <v>20</v>
+      </c>
+      <c r="F30" s="35">
+        <v>20</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="35">
+        <v>20</v>
+      </c>
+      <c r="F31" s="35">
+        <v>20</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="35">
+        <v>44</v>
+      </c>
+      <c r="F32" s="35">
+        <v>66</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="35">
+        <v>72</v>
+      </c>
+      <c r="F33" s="35">
+        <v>72</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="35">
+        <v>48</v>
+      </c>
+      <c r="F34" s="35">
+        <v>60</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="35">
+        <v>24</v>
+      </c>
+      <c r="F35" s="35">
+        <v>32</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="35">
+        <v>54</v>
+      </c>
+      <c r="F36" s="35">
+        <v>72</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="35">
+        <v>100</v>
+      </c>
+      <c r="F37" s="35">
+        <v>100</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="35">
+        <v>100</v>
+      </c>
+      <c r="F38" s="35">
+        <v>100</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="35">
+        <v>48</v>
+      </c>
+      <c r="F39" s="35">
+        <v>48</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="35">
+        <v>24</v>
+      </c>
+      <c r="F40" s="35">
+        <v>24</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="35">
+        <v>100</v>
+      </c>
+      <c r="F41" s="35">
+        <v>100</v>
+      </c>
+      <c r="G41" s="20"/>
+      <c r="H41" s="31"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{32CFC62D-DDB4-4E49-A087-182342AA89E8}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{0A4C8BFF-74F2-461C-811B-46511CB599BE}"/>
+    <hyperlink ref="I3" r:id="rId3" xr:uid="{9FEB50A1-B232-4D9D-8296-2ABD37DEA0B8}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{8E9FDFF2-1B39-43F2-B28A-9C8CC474A1AD}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{C1CF08E5-8334-48DE-98EA-369462BE1893}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{BD1ED98E-113B-4BE4-A296-53CA2D23E269}"/>
+    <hyperlink ref="I6" r:id="rId7" xr:uid="{377BA54E-B699-4F72-A1F4-B83CC32034B5}"/>
+    <hyperlink ref="A7" r:id="rId8" xr:uid="{63938B65-6CEC-4CD9-867E-68448B04F33E}"/>
+    <hyperlink ref="A8" r:id="rId9" xr:uid="{318FBC45-3477-4480-AA0A-5549D23A6E01}"/>
+    <hyperlink ref="A9" r:id="rId10" xr:uid="{86CFE92A-BDD3-48D3-9CC5-6F2BAFF36A81}"/>
+    <hyperlink ref="I9" r:id="rId11" xr:uid="{3A4FCECF-08FC-41B7-9885-06B95F7E6943}"/>
+    <hyperlink ref="A10" r:id="rId12" xr:uid="{5DA2F1DE-1ADA-40C0-847D-EA21AEC94C0D}"/>
+    <hyperlink ref="A11" r:id="rId13" xr:uid="{72F406F5-D75E-428A-AF00-A278D9609EBA}"/>
+    <hyperlink ref="A12" r:id="rId14" xr:uid="{7F079305-D65D-4DDD-AE23-E15954FDFF2C}"/>
+    <hyperlink ref="I12" r:id="rId15" location="how-can-i-review-the-math-prerequisites" xr:uid="{8EF380D1-5CDD-456D-B7E8-9F88BC5509BE}"/>
+    <hyperlink ref="A13" r:id="rId16" xr:uid="{905428CA-1C6A-4C8B-9C04-F12C088CBC3A}"/>
+    <hyperlink ref="A14" r:id="rId17" xr:uid="{B051D7E1-2B9F-4A7A-8D23-A3E659D86915}"/>
+    <hyperlink ref="A15" r:id="rId18" xr:uid="{E0B9CD70-A81C-44A2-8B1B-CCF5095808EC}"/>
+    <hyperlink ref="A16" r:id="rId19" xr:uid="{587A96FF-F69A-45E1-8293-8EAFE8E21A99}"/>
+    <hyperlink ref="A17" r:id="rId20" xr:uid="{476C1CBF-E1AF-4818-A7AD-3E79DE978641}"/>
+    <hyperlink ref="A18" r:id="rId21" xr:uid="{6BE5CFF6-EBB2-4C62-BE61-68AAE4CF30B4}"/>
+    <hyperlink ref="I18" r:id="rId22" xr:uid="{65F114C7-00C2-4FDD-999B-47F2AD21B4CF}"/>
+    <hyperlink ref="A19" r:id="rId23" xr:uid="{918988F8-35B9-4513-A407-9187D06E192D}"/>
+    <hyperlink ref="I19" r:id="rId24" xr:uid="{90E9AA05-CC84-4792-871D-DF5122D7E181}"/>
+    <hyperlink ref="A20" r:id="rId25" xr:uid="{CBFCAB6D-C582-4899-B9B4-0798CA9471E6}"/>
+    <hyperlink ref="A21" r:id="rId26" xr:uid="{D4F6A249-B65A-42E1-A098-37A380AD9A82}"/>
+    <hyperlink ref="A22" r:id="rId27" xr:uid="{42ED5D4C-AA67-48DE-AF47-DE65902E3EB1}"/>
+    <hyperlink ref="A23" r:id="rId28" xr:uid="{FA915042-DCF5-42E1-9213-913EDCD1B84B}"/>
+    <hyperlink ref="A24" r:id="rId29" xr:uid="{D876B71E-F962-419B-93B6-018F411F368F}"/>
+    <hyperlink ref="A25" r:id="rId30" xr:uid="{97BB1FA8-B756-4692-8198-C31926D397FB}"/>
+    <hyperlink ref="A26" r:id="rId31" xr:uid="{E1E5D4C5-0E43-4204-88C6-50A9619DC8B1}"/>
+    <hyperlink ref="A27" r:id="rId32" xr:uid="{F7DB4ECB-FF1B-4A63-8BC2-73FDEAEEEBB7}"/>
+    <hyperlink ref="A28" r:id="rId33" xr:uid="{74A274F3-4B5D-4959-A898-F35FE64595B0}"/>
+    <hyperlink ref="A29" r:id="rId34" xr:uid="{D593B788-B8C3-4097-B65A-12681A6B9FF5}"/>
+    <hyperlink ref="A30" r:id="rId35" xr:uid="{C5CAE9B9-52DA-4312-AE29-FB27815058A9}"/>
+    <hyperlink ref="A31" r:id="rId36" xr:uid="{93D66BD1-7283-4E4C-9707-5DABA94E8A27}"/>
+    <hyperlink ref="A32" r:id="rId37" xr:uid="{CA169866-3037-4ECE-B98C-8EB8F54FD179}"/>
+    <hyperlink ref="A33" r:id="rId38" xr:uid="{A1F16632-5FA3-420D-B91D-DFE78D973526}"/>
+    <hyperlink ref="A34" r:id="rId39" xr:uid="{57C826AB-4B84-47A9-8B64-B16B3FA202A9}"/>
+    <hyperlink ref="I34" r:id="rId40" location="why-require-experience-with-a-sizable-project-before-the-Software-Engineering-courses" xr:uid="{DAABA734-4AD8-4E1A-8274-01F64F91A1A8}"/>
+    <hyperlink ref="A35" r:id="rId41" xr:uid="{508F2B36-AF3E-4E30-AD22-D24795DD4519}"/>
+    <hyperlink ref="A36" r:id="rId42" xr:uid="{F1CBAB61-D6AA-45E6-BDF0-88994F442465}"/>
+    <hyperlink ref="A37" r:id="rId43" xr:uid="{71E18D48-35E2-430B-B2A5-833A63BCCB6E}"/>
+    <hyperlink ref="A38" r:id="rId44" xr:uid="{47883786-F8AB-4B42-985A-B3907D23B9B9}"/>
+    <hyperlink ref="A39" r:id="rId45" xr:uid="{5FE081B3-C47E-45A4-8DCA-98AE4BBC3BD1}"/>
+    <hyperlink ref="A40" r:id="rId46" xr:uid="{C32A6E70-4E64-4A9A-9CD9-418F3CAF5CC7}"/>
+    <hyperlink ref="A41" r:id="rId47" location="final-project" xr:uid="{84F98F3D-1AE6-40B7-9B69-CCF180C34AA8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF6FA8DC"/>
@@ -1755,10 +2916,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1945,7 +3106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF4A86E8"/>
@@ -1953,11 +3114,11 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2016,7 +3177,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>17</v>
@@ -2134,7 +3295,7 @@
         <v>null</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>20</v>
@@ -2176,7 +3337,7 @@
         <v>null</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>31</v>
@@ -2218,7 +3379,7 @@
         <v>null</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L6" s="21" t="s">
         <v>35</v>
@@ -2260,7 +3421,7 @@
         <v>null</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>32</v>
@@ -2302,7 +3463,7 @@
         <v>null</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>36</v>
@@ -2412,9 +3573,9 @@
         <f t="shared" si="0"/>
         <v>44582</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="16" t="str">
         <f>IF(ISBLANK(K11),F11+(E11/(Timeline!$B$3/7)),K11)</f>
-        <v>44584</v>
+        <v>null</v>
       </c>
       <c r="H11" s="26">
         <v>20</v>
@@ -2423,12 +3584,12 @@
         <f t="shared" si="1"/>
         <v>44582</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="16" t="str">
         <f>IF(ISBLANK(K11),I11+(H11/(Timeline!$B$3/7)),K11)</f>
-        <v>44584</v>
-      </c>
-      <c r="K11" s="17">
-        <v>44584</v>
+        <v>null</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="L11" s="26" t="s">
         <v>43</v>
@@ -2450,27 +3611,27 @@
       <c r="E12" s="2">
         <v>78</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>44584</v>
-      </c>
-      <c r="G12" s="16" t="str">
+        <v>null</v>
+      </c>
+      <c r="G12" s="16">
         <f>IF(ISBLANK(K12),F12+(E12/(Timeline!$B$3/7)),K12)</f>
-        <v>null</v>
+        <v>44585</v>
       </c>
       <c r="H12" s="2">
         <v>130</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>44584</v>
-      </c>
-      <c r="J12" s="16" t="str">
+        <v>null</v>
+      </c>
+      <c r="J12" s="16">
         <f>IF(ISBLANK(K12),I12+(H12/(Timeline!$B$3/7)),K12)</f>
-        <v>null</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>119</v>
+        <v>44585</v>
+      </c>
+      <c r="K12" s="17">
+        <v>44585</v>
       </c>
       <c r="L12" s="21" t="s">
         <v>50</v>
@@ -2492,9 +3653,9 @@
       <c r="E13" s="2">
         <v>65</v>
       </c>
-      <c r="F13" s="20" t="str">
+      <c r="F13" s="20">
         <f t="shared" si="0"/>
-        <v>null</v>
+        <v>44585</v>
       </c>
       <c r="G13" s="16" t="str">
         <f>IF(ISBLANK(K13),F13+(E13/(Timeline!$B$3/7)),K13)</f>
@@ -2503,16 +3664,16 @@
       <c r="H13" s="2">
         <v>130</v>
       </c>
-      <c r="I13" s="20" t="str">
+      <c r="I13" s="20">
         <f t="shared" si="1"/>
-        <v>null</v>
+        <v>44585</v>
       </c>
       <c r="J13" s="16" t="str">
         <f>IF(ISBLANK(K13),I13+(H13/(Timeline!$B$3/7)),K13)</f>
         <v>null</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>53</v>
@@ -2554,15 +3715,15 @@
         <v>null</v>
       </c>
       <c r="K14" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="39" t="s">
         <v>119</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>47</v>
@@ -2571,7 +3732,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2">
         <v>65</v>
@@ -2599,21 +3760,21 @@
         <v>44585</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="C16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E16" s="2">
         <v>24</v>
@@ -2644,16 +3805,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2">
         <v>42</v>
@@ -2679,21 +3840,21 @@
       </c>
       <c r="K17" s="23"/>
       <c r="L17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2">
         <v>72</v>
@@ -2719,21 +3880,21 @@
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E19" s="2">
         <v>60</v>
@@ -2759,21 +3920,21 @@
       </c>
       <c r="K19" s="23"/>
       <c r="L19" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E20" s="2">
         <v>32</v>
@@ -2799,15 +3960,15 @@
       </c>
       <c r="K20" s="23"/>
       <c r="L20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>40</v>
@@ -2839,15 +4000,15 @@
       </c>
       <c r="K21" s="23"/>
       <c r="L21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>40</v>
@@ -2879,15 +4040,15 @@
       </c>
       <c r="K22" s="23"/>
       <c r="L22" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>40</v>
@@ -2919,15 +4080,15 @@
       </c>
       <c r="K23" s="23"/>
       <c r="L23" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>40</v>
@@ -2959,21 +4120,21 @@
       </c>
       <c r="K24" s="23"/>
       <c r="L24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" s="2">
         <v>15</v>
@@ -3004,10 +4165,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>40</v>
@@ -3044,10 +4205,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>40</v>
@@ -3084,16 +4245,16 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2">
         <v>20</v>
@@ -3124,13 +4285,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>91</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>19</v>
@@ -3159,18 +4320,18 @@
       </c>
       <c r="K29" s="23"/>
       <c r="L29" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>19</v>
@@ -3199,18 +4360,18 @@
       </c>
       <c r="K30" s="23"/>
       <c r="L30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>19</v>
@@ -3239,21 +4400,21 @@
       </c>
       <c r="K31" s="23"/>
       <c r="L31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E32" s="2">
         <v>44</v>
@@ -3279,21 +4440,21 @@
       </c>
       <c r="K32" s="23"/>
       <c r="L32" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="2">
         <v>72</v>
@@ -3319,15 +4480,15 @@
       </c>
       <c r="K33" s="23"/>
       <c r="L33" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>30</v>
@@ -3359,21 +4520,21 @@
       </c>
       <c r="K34" s="23"/>
       <c r="L34" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E35" s="2">
         <v>24</v>
@@ -3399,21 +4560,21 @@
       </c>
       <c r="K35" s="23"/>
       <c r="L35" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E36" s="2">
         <v>54</v>
@@ -3439,18 +4600,18 @@
       </c>
       <c r="K36" s="23"/>
       <c r="L36" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>20</v>
@@ -3484,13 +4645,13 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>20</v>
@@ -3524,16 +4685,16 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2">
         <v>48</v>
@@ -3559,21 +4720,21 @@
       </c>
       <c r="K39" s="23"/>
       <c r="L39" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E40" s="2">
         <v>24</v>
@@ -3599,15 +4760,15 @@
       </c>
       <c r="K40" s="23"/>
       <c r="L40" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E41" s="2">
         <v>100</v>

--- a/CS Course/Copy of OSSU CS Timeline .xlsx
+++ b/CS Course/Copy of OSSU CS Timeline .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxp\Desktop\AI_for_learning\CS Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D6D022-E1B3-4E2F-953C-0A2737C11B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF73357-9FDC-4B8A-9BEE-368BB8A4FCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -680,16 +680,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1747,7 +1747,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2112,10 +2112,12 @@
       <c r="F12" s="35">
         <v>130</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="38">
         <v>44584</v>
       </c>
-      <c r="H12" s="33"/>
+      <c r="H12" s="17">
+        <v>44590</v>
+      </c>
       <c r="I12" s="21" t="s">
         <v>50</v>
       </c>
@@ -2166,7 +2168,7 @@
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="33"/>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="37" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2888,6 +2890,7 @@
     <hyperlink ref="A41" r:id="rId47" location="final-project" xr:uid="{84F98F3D-1AE6-40B7-9B69-CCF180C34AA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId48"/>
 </worksheet>
 </file>
 
@@ -2916,10 +2919,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -3717,7 +3720,7 @@
       <c r="K14" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="37" t="s">
         <v>119</v>
       </c>
     </row>

--- a/CS Course/Copy of OSSU CS Timeline .xlsx
+++ b/CS Course/Copy of OSSU CS Timeline .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxp\Desktop\AI_for_learning\CS Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF73357-9FDC-4B8A-9BEE-368BB8A4FCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97989AC9-C2AC-4EDC-AD62-22B6AF36AC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1747,7 +1747,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A15" sqref="A13:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2141,7 +2141,9 @@
       <c r="F13" s="35">
         <v>130</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="38">
+        <v>44591</v>
+      </c>
       <c r="H13" s="33"/>
       <c r="I13" s="35" t="s">
         <v>53</v>

--- a/CS Course/Copy of OSSU CS Timeline .xlsx
+++ b/CS Course/Copy of OSSU CS Timeline .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxp\Desktop\AI_for_learning\CS Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97989AC9-C2AC-4EDC-AD62-22B6AF36AC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20CAA17-285A-4C32-86B9-F42C0B305BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1747,7 +1747,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A13:XFD15"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2144,7 +2144,9 @@
       <c r="G13" s="38">
         <v>44591</v>
       </c>
-      <c r="H13" s="33"/>
+      <c r="H13" s="34">
+        <v>44611</v>
+      </c>
       <c r="I13" s="35" t="s">
         <v>53</v>
       </c>

--- a/CS Course/Copy of OSSU CS Timeline .xlsx
+++ b/CS Course/Copy of OSSU CS Timeline .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxp\Desktop\AI_for_learning\CS Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20CAA17-285A-4C32-86B9-F42C0B305BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C60DAB9-9038-4440-B7CE-E813C13BBEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="124">
   <si>
     <t>Start Date</t>
   </si>
@@ -439,6 +439,22 @@
     <t>Calculus 1B</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grades,A-90,B-80,C-70,D-60</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -449,7 +465,7 @@
     <numFmt numFmtId="177" formatCode="yyyy&quot; &quot;mmm&quot; &quot;dd"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -543,6 +559,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -588,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -690,6 +712,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1744,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7725D21E-7449-4F73-A85B-F8786B6311CD}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1764,7 +1790,7 @@
     <col min="10" max="16384" width="14.42578125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -1792,8 +1818,11 @@
       <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>117</v>
       </c>
@@ -1823,7 +1852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
@@ -1853,7 +1882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>25</v>
       </c>
@@ -1883,7 +1912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>29</v>
       </c>
@@ -1913,7 +1942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>32</v>
       </c>
@@ -1943,7 +1972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>36</v>
       </c>
@@ -1973,7 +2002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>38</v>
       </c>
@@ -2003,7 +2032,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>39</v>
       </c>
@@ -2033,7 +2062,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
         <v>43</v>
       </c>
@@ -2063,7 +2092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>44</v>
       </c>
@@ -2093,7 +2122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>46</v>
       </c>
@@ -2121,8 +2150,11 @@
       <c r="I12" s="21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>51</v>
       </c>
@@ -2150,8 +2182,11 @@
       <c r="I13" s="35" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>54</v>
       </c>
@@ -2170,13 +2205,20 @@
       <c r="F14" s="35">
         <v>60</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="33"/>
+      <c r="G14" s="38">
+        <v>44612</v>
+      </c>
+      <c r="H14" s="34">
+        <v>44615</v>
+      </c>
       <c r="I14" s="37" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>55</v>
       </c>
@@ -2195,13 +2237,16 @@
       <c r="F15" s="35">
         <v>65</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="38">
+        <v>44616</v>
+      </c>
       <c r="H15" s="33"/>
       <c r="I15" s="35" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>58</v>
       </c>

--- a/CS Course/Copy of OSSU CS Timeline .xlsx
+++ b/CS Course/Copy of OSSU CS Timeline .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxp\Desktop\AI_for_learning\CS Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C60DAB9-9038-4440-B7CE-E813C13BBEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6709AE6B-647A-4B68-9A06-BD32B7BAE806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,14 +708,14 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1773,7 +1773,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1818,7 +1818,7 @@
       <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
       <c r="I12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="39" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
       <c r="I13" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="41" t="s">
+      <c r="J13" s="39" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       <c r="I14" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="39" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2244,7 +2244,7 @@
       <c r="I15" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="41"/>
+      <c r="J15" s="39"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
@@ -2265,7 +2265,9 @@
       <c r="F16" s="35">
         <v>24</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="38">
+        <v>44619</v>
+      </c>
       <c r="H16" s="23"/>
       <c r="I16" s="35" t="s">
         <v>20</v>
@@ -2968,10 +2970,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
